--- a/a.xlsx
+++ b/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t xml:space="preserve">    日期
 序号</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>7.22</t>
+  </si>
+  <si>
+    <t>7.23</t>
+  </si>
+  <si>
+    <t>7.24</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t>7.26</t>
+  </si>
+  <si>
+    <t>7.27</t>
+  </si>
+  <si>
+    <t>7.28</t>
+  </si>
+  <si>
+    <t>7.29</t>
+  </si>
+  <si>
+    <t>7.30</t>
   </si>
   <si>
     <t>合计</t>
@@ -28,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -43,14 +76,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,28 +113,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,6 +159,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -115,40 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +197,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,9 +212,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,13 +228,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,55 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,109 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,11 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,6 +474,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,30 +534,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -504,17 +543,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,149 +559,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +709,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,6 +767,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -990,17 +1031,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="9.375"/>
+    <col min="6" max="7" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:16">
@@ -1016,18 +1058,42 @@
       <c r="D1" s="2">
         <v>7.18</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="E1" s="2">
+        <v>7.19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2">
@@ -1042,9 +1108,15 @@
       <c r="D2" s="2">
         <v>74.7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="2">
+        <v>74.7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>74.72</v>
+      </c>
+      <c r="G2" s="2">
+        <v>74.73</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1069,8 +1141,12 @@
         <v>24912.88</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2">
+        <v>24915.89</v>
+      </c>
+      <c r="G3" s="2">
+        <v>24917.39</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1095,8 +1171,12 @@
         <v>1.42</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.42</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1121,8 +1201,12 @@
         <v>264.53</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2">
+        <v>265.35</v>
+      </c>
+      <c r="G5" s="2">
+        <v>265.35</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1147,8 +1231,12 @@
         <v>-216.57</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2">
+        <v>-216.57</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-216.57</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1173,8 +1261,12 @@
         <v>4.06</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2">
+        <v>4.06</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.06</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1199,8 +1291,12 @@
         <v>-2490</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2">
+        <v>-2490</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-2490</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1225,8 +1321,12 @@
         <v>-2975.8</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2">
+        <v>-2975.8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-2975.8</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1251,8 +1351,12 @@
         <v>102.32</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2">
+        <v>102.32</v>
+      </c>
+      <c r="G10" s="2">
+        <v>102.32</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1277,8 +1381,14 @@
         <v>-441.33</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2">
+        <f>-441.33*5</f>
+        <v>-2206.65</v>
+      </c>
+      <c r="G11" s="2">
+        <f>-2206.65-103.83</f>
+        <v>-2310.48</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1340,7 +1450,9 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>5000</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1693,7 +1805,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -1709,15 +1821,15 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74.7</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17474.74</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22372.42</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -61,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,6 +76,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -83,7 +90,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,6 +127,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -143,24 +166,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,13 +191,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,21 +213,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,6 +228,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,19 +360,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,151 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,11 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,17 +508,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,145 +559,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,13 +1036,14 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="9.375"/>
-    <col min="6" max="7" width="9.375"/>
+    <col min="6" max="8" width="9.375"/>
+    <col min="13" max="13" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:16">
@@ -1119,10 +1120,14 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <v>73.75</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="2">
+        <v>54.76</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1149,10 +1154,14 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2">
+        <v>24921.89</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2">
+        <v>24926.34</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1179,10 +1188,14 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>1.42</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <v>1.42</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1209,10 +1222,14 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>266.42</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <v>291.9</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1239,10 +1256,14 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>-241.33</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <v>-244.67</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1269,10 +1290,14 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>4.06</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <v>4.06</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1299,10 +1324,14 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>-2490</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2">
+        <v>-2490</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1329,10 +1358,14 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>-2975.8</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <v>-2975.8</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1359,10 +1392,14 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>102.32</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2">
+        <v>102.32</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1391,10 +1428,14 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>-2310.48</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2">
+        <v>-2310.48</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1841,7 +1882,7 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17352.25</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="0"/>
@@ -1853,7 +1894,7 @@
       </c>
       <c r="M32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17359.85</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>7.29</t>
   </si>
   <si>
-    <t>7.30</t>
+    <t>7.31</t>
   </si>
   <si>
     <t>合计</t>
@@ -61,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,13 +76,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -90,7 +83,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,17 +98,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,10 +113,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,7 +144,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -151,7 +152,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -167,29 +168,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -204,6 +182,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -213,7 +206,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +228,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,169 +378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,22 +473,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,43 +531,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,16 +571,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,115 +589,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1044,6 +1044,7 @@
     <col min="2" max="4" width="9.375"/>
     <col min="6" max="8" width="9.375"/>
     <col min="13" max="13" width="9.375"/>
+    <col min="16" max="16" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:16">
@@ -1130,7 +1131,9 @@
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="P2" s="2">
+        <v>52.76</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
@@ -1164,7 +1167,9 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2">
+        <v>21956.69</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2">
@@ -1198,7 +1203,9 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2">
@@ -1232,7 +1239,9 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2">
+        <v>299.94</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2">
@@ -1266,7 +1275,9 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2">
+        <v>-283.83</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2">
@@ -1300,7 +1311,9 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2">
+        <v>4.06</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2">
@@ -1334,7 +1347,9 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2">
+        <v>-2490</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2">
@@ -1368,7 +1383,9 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2">
+        <v>-345</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2">
@@ -1402,7 +1419,9 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2">
+        <v>3677.32</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2">
@@ -1438,7 +1457,9 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2">
+        <v>-2310.48</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2">
@@ -1906,7 +1927,7 @@
       </c>
       <c r="P32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20562.88</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -73,15 +73,81 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -95,15 +161,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,68 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,39 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,103 +240,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,79 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,21 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -514,26 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -563,6 +528,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -779,6 +779,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1038,12 +1043,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1108,7 +1113,9 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>708.76</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1130,7 +1137,9 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>21921.98</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1152,7 +1161,9 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>321.42</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1174,7 +1185,9 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>298.92</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1196,7 +1209,9 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>-283.83</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1218,7 +1233,9 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>4.06</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1240,7 +1257,9 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>-345</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1262,7 +1281,9 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>-2490</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1284,7 +1305,9 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>2000.32</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1306,7 +1329,9 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>-2310.48</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1730,7 +1755,7 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B2:B31)</f>
-        <v>0</v>
+        <v>19826.15</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>

--- a/a.xlsx
+++ b/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,7 +88,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +131,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -110,36 +177,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,42 +216,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,37 +230,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -240,67 +240,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,67 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,37 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,6 +468,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -486,6 +497,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,41 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -779,11 +779,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1043,12 +1038,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1353,7 +1348,9 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>1800</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1373,7 +1370,9 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>-600</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1755,7 +1754,7 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B2:B31)</f>
-        <v>19826.15</v>
+        <v>21026.15</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>

--- a/a.xlsx
+++ b/a.xlsx
@@ -73,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,23 +95,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,6 +156,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -147,6 +186,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -155,7 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,60 +230,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -240,187 +240,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,44 +468,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,17 +529,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1111,7 +1111,9 @@
       <c r="B2" s="3">
         <v>708.76</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>708.77</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1758,7 +1760,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>
-        <v>0</v>
+        <v>708.77</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="21780" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,14 +88,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,14 +186,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,107 +230,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -240,187 +240,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,39 +468,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,13 +501,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,8 +543,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,31 +583,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,100 +622,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -779,6 +779,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1038,12 +1043,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1112,7 +1117,7 @@
         <v>708.76</v>
       </c>
       <c r="C2" s="3">
-        <v>708.77</v>
+        <v>1208.76</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1137,7 +1142,9 @@
       <c r="B3" s="3">
         <v>21921.98</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>21923.27</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1161,7 +1168,9 @@
       <c r="B4" s="3">
         <v>321.42</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>3800.32</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1185,7 +1194,9 @@
       <c r="B5" s="3">
         <v>298.92</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>446.88</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1209,7 +1220,9 @@
       <c r="B6" s="3">
         <v>-283.83</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>-283.83</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1233,7 +1246,9 @@
       <c r="B7" s="3">
         <v>4.06</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>121.42</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1257,7 +1272,9 @@
       <c r="B8" s="3">
         <v>-345</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>4.06</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1281,7 +1298,9 @@
       <c r="B9" s="3">
         <v>-2490</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <v>-2490</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1305,7 +1324,9 @@
       <c r="B10" s="3">
         <v>2000.32</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <v>-2360.48</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1329,7 +1350,9 @@
       <c r="B11" s="3">
         <v>-2310.48</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>-600</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1353,7 +1376,9 @@
       <c r="B12" s="3">
         <v>1800</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3">
+        <v>-345</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1760,7 +1785,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>
-        <v>708.77</v>
+        <v>21425.4</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21780" windowHeight="6780"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +89,43 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,30 +139,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,13 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -156,53 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,22 +230,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -240,19 +240,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,73 +372,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,85 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +466,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -481,7 +505,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,39 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -563,6 +554,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -779,11 +779,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1043,12 +1038,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1119,7 +1114,9 @@
       <c r="C2" s="3">
         <v>1208.76</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>1208.81</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1145,7 +1142,9 @@
       <c r="C3" s="3">
         <v>21923.27</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>21986.86</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1171,7 +1170,9 @@
       <c r="C4" s="3">
         <v>3800.32</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>2800.32</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1197,7 +1198,9 @@
       <c r="C5" s="3">
         <v>446.88</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>121.42</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1223,7 +1226,9 @@
       <c r="C6" s="3">
         <v>-283.83</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>-283.83</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1249,7 +1254,9 @@
       <c r="C7" s="3">
         <v>121.42</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>844.85</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1275,7 +1282,9 @@
       <c r="C8" s="3">
         <v>4.06</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>4.06</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1301,7 +1310,9 @@
       <c r="C9" s="3">
         <v>-2490</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>-2490</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1327,7 +1338,9 @@
       <c r="C10" s="3">
         <v>-2360.48</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>-1815.3</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1353,7 +1366,9 @@
       <c r="C11" s="3">
         <v>-600</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>-600</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1379,7 +1394,9 @@
       <c r="C12" s="3">
         <v>-345</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>-345</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1789,7 +1806,7 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21432.19</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,6 +84,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,24 +109,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,14 +125,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,39 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +195,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,7 +218,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,31 +240,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,25 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,121 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +481,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -497,45 +536,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,8 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -779,6 +779,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1038,12 +1043,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1118,9 +1123,15 @@
         <v>1208.81</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="3">
+        <v>1208.91</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1208.99</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1209.07</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1146,9 +1157,15 @@
         <v>21986.86</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="3">
+        <v>21989.4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>21990.67</v>
+      </c>
+      <c r="H3" s="3">
+        <v>21913.1</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1174,9 +1191,13 @@
         <v>2800.32</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>2800.32</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>121.42</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1202,9 +1223,13 @@
         <v>121.42</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>121.42</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>3534.67</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1230,7 +1255,9 @@
         <v>-283.83</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>-283.83</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1258,9 +1285,13 @@
         <v>844.85</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>844.87</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>-283.83</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1286,9 +1317,13 @@
         <v>4.06</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>4.06</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>-2490</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1314,9 +1349,13 @@
         <v>-2490</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>-2490</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>-600</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1342,9 +1381,13 @@
         <v>-1815.3</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>-1815.3</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>-1815.3</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1370,9 +1413,13 @@
         <v>-600</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>-600</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>-345</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1398,7 +1445,9 @@
         <v>-345</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>-345</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1814,15 +1863,15 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21434.85</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23199.66</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21244.13</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -73,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,14 +87,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -102,53 +94,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +110,43 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -169,11 +154,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,32 +178,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +222,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -240,19 +240,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +336,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,151 +396,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,17 +466,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,26 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,18 +544,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,13 +1048,14 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="9.375"/>
     <col min="6" max="8" width="9.375"/>
+    <col min="10" max="10" width="9.375"/>
     <col min="13" max="13" width="9.375"/>
     <col min="16" max="16" width="9.375"/>
   </cols>
@@ -1133,7 +1134,9 @@
         <v>1209.07</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3">
+        <v>1455.23</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1167,7 +1170,9 @@
         <v>21913.1</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>21915.63</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1199,7 +1204,9 @@
         <v>121.42</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <v>21.42</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1231,7 +1238,9 @@
         <v>3534.67</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>3464.57</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1293,7 +1302,9 @@
         <v>-283.83</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>-283.83</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1325,7 +1336,9 @@
         <v>-2490</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>-2490</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1357,7 +1370,9 @@
         <v>-600</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>-600</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1389,7 +1404,9 @@
         <v>-1815.3</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1421,7 +1438,9 @@
         <v>-345</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>-345</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1879,7 +1898,7 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21292.77</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -3,6 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
@@ -20,16 +21,16 @@
 序号</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>8.16</t>
   </si>
   <si>
-    <t>8.2</t>
+    <t>8.17</t>
   </si>
   <si>
-    <t>8.3</t>
+    <t>8.18</t>
   </si>
   <si>
-    <t>8.4</t>
+    <t>8.19</t>
   </si>
   <si>
     <t>8.5</t>
@@ -62,7 +63,7 @@
     <t>8.14</t>
   </si>
   <si>
-    <t>7.31</t>
+    <t>8.15</t>
   </si>
   <si>
     <t>合计</t>
@@ -73,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +90,42 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +139,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -109,30 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,14 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -162,6 +217,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -169,67 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -240,19 +241,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,163 +397,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,22 +467,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +491,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,30 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -563,6 +531,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,14 +1049,14 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="9.375"/>
     <col min="6" max="8" width="9.375"/>
-    <col min="10" max="10" width="9.375"/>
+    <col min="10" max="11" width="9.375"/>
     <col min="13" max="13" width="9.375"/>
     <col min="16" max="16" width="9.375"/>
   </cols>
@@ -1114,295 +1115,203 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>708.76</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1208.76</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1208.81</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3">
-        <v>1208.91</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1208.99</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1209.07</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3">
         <v>1455.23</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <v>1455.31</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3">
-        <v>708.76</v>
-      </c>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>21921.98</v>
-      </c>
-      <c r="C3" s="3">
-        <v>21923.27</v>
-      </c>
-      <c r="D3" s="3">
-        <v>21986.86</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <v>21989.4</v>
-      </c>
-      <c r="G3" s="3">
-        <v>21990.67</v>
-      </c>
-      <c r="H3" s="3">
-        <v>21913.1</v>
-      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
         <v>21915.63</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>21916.98</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3">
-        <v>21956.69</v>
-      </c>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>321.42</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3800.32</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2800.32</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3">
-        <v>2800.32</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>121.42</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
         <v>21.42</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>21.42</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3">
-        <v>1.42</v>
-      </c>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>298.92</v>
-      </c>
-      <c r="C5" s="3">
-        <v>446.88</v>
-      </c>
-      <c r="D5" s="3">
-        <v>121.42</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>121.42</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>3534.67</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3">
         <v>3464.57</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>3181.78</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3">
-        <v>299.94</v>
-      </c>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>-283.83</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-283.83</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-283.83</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>-283.83</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>-2490</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3">
-        <v>-283.83</v>
-      </c>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>4.06</v>
-      </c>
-      <c r="C7" s="3">
-        <v>121.42</v>
-      </c>
-      <c r="D7" s="3">
-        <v>844.85</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3">
-        <v>844.87</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>-283.83</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
         <v>-283.83</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>-600</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3">
-        <v>4.06</v>
-      </c>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>-345</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4.06</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.06</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>4.06</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3">
         <v>-2490</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <v>-600</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3">
         <v>-600</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>-345</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3">
-        <v>-345</v>
-      </c>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>2000.32</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-2360.48</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-1815.3</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3">
-        <v>-1815.3</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>-1815.3</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3">
         <v>-1845.25</v>
@@ -1412,31 +1321,19 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3">
-        <v>2000.32</v>
-      </c>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>-2310.48</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-600</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>-600</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>-345</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3">
         <v>-345</v>
@@ -1446,27 +1343,17 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3">
-        <v>-2310.48</v>
-      </c>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-345</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-345</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>-345</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1482,9 +1369,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>-600</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1866,15 +1751,15 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B2:B31)</f>
-        <v>21026.15</v>
+        <v>0</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>
-        <v>21425.4</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>21432.19</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
@@ -1882,15 +1767,15 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>21434.85</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>23199.66</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>21244.13</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
@@ -1902,7 +1787,7 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21295.24</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
@@ -1922,7 +1807,7 @@
       </c>
       <c r="P32" s="3">
         <f t="shared" si="0"/>
-        <v>19541.88</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -75,8 +75,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -96,14 +96,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,9 +125,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,53 +202,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -216,21 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,13 +241,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,13 +313,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,151 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,52 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,11 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,6 +529,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,15 +1049,14 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="9.375"/>
     <col min="6" max="8" width="9.375"/>
-    <col min="10" max="11" width="9.375"/>
-    <col min="13" max="13" width="9.375"/>
+    <col min="10" max="13" width="9.375"/>
     <col min="16" max="16" width="9.375"/>
   </cols>
   <sheetData>
@@ -1129,7 +1128,9 @@
       <c r="K2" s="3">
         <v>1455.31</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3">
+        <v>1455.39</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1153,7 +1154,9 @@
       <c r="K3" s="3">
         <v>21916.98</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>21917.21</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1177,7 +1180,9 @@
       <c r="K4" s="3">
         <v>21.42</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>22.42</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1201,7 +1206,9 @@
       <c r="K5" s="3">
         <v>3181.78</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>3181.96</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1223,7 +1230,9 @@
       <c r="K6" s="3">
         <v>-2490</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>-2490</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1247,7 +1256,9 @@
       <c r="K7" s="3">
         <v>-600</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>-600</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1271,7 +1282,9 @@
       <c r="K8" s="3">
         <v>-1845.25</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>-345</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1295,7 +1308,9 @@
       <c r="K9" s="3">
         <v>-345</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1791,7 +1806,7 @@
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21296.73</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -89,6 +89,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -102,8 +140,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,14 +179,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,32 +200,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,45 +231,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +471,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,30 +531,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,26 +564,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1131,7 +1131,9 @@
       <c r="L2" s="3">
         <v>1455.39</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3">
+        <v>1455.47</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1157,7 +1159,9 @@
       <c r="L3" s="3">
         <v>21917.21</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>21918.44</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1183,7 +1187,9 @@
       <c r="L4" s="3">
         <v>22.42</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>2.42</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1209,7 +1215,9 @@
       <c r="L5" s="3">
         <v>3181.96</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>3160.54</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1233,7 +1241,9 @@
       <c r="L6" s="3">
         <v>-2490</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>-2490</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1259,7 +1269,9 @@
       <c r="L7" s="3">
         <v>-600</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>-600</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1285,7 +1297,9 @@
       <c r="L8" s="3">
         <v>-345</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>-345</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1311,7 +1325,9 @@
       <c r="L9" s="3">
         <v>-1845.25</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1333,7 +1349,9 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <v>-700</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1415,7 +1433,9 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>6000</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1810,7 +1830,7 @@
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26556.62</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,8 +88,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,38 +187,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,90 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,17 +471,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -502,11 +491,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +526,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,32 +554,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,14 +1049,14 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="9.375"/>
     <col min="6" max="8" width="9.375"/>
-    <col min="10" max="13" width="9.375"/>
+    <col min="10" max="14" width="9.375"/>
     <col min="16" max="16" width="9.375"/>
   </cols>
   <sheetData>
@@ -1134,7 +1134,9 @@
       <c r="M2" s="3">
         <v>1455.47</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3">
+        <v>1455.57</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
@@ -1162,7 +1164,9 @@
       <c r="M3" s="3">
         <v>21918.44</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3">
+        <v>3170.44</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
@@ -1190,7 +1194,9 @@
       <c r="M4" s="3">
         <v>2.42</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3">
+        <v>2.42</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
@@ -1218,7 +1224,9 @@
       <c r="M5" s="3">
         <v>3160.54</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>21919.67</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
@@ -1244,7 +1252,9 @@
       <c r="M6" s="3">
         <v>-2490</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3">
+        <v>-2490</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
@@ -1272,7 +1282,9 @@
       <c r="M7" s="3">
         <v>-600</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>-600</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
@@ -1300,7 +1312,9 @@
       <c r="M8" s="3">
         <v>-345</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3">
+        <v>-345</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
@@ -1328,7 +1342,9 @@
       <c r="M9" s="3">
         <v>-1845.25</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
@@ -1834,7 +1850,7 @@
       </c>
       <c r="N32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21267.85</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -74,15 +74,98 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -96,49 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -147,11 +187,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,38 +210,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,21 +225,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -247,49 +247,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,121 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,26 +467,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,25 +507,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,11 +558,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1114,7 +1114,9 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>2463.86</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1144,7 +1146,9 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>500</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1174,7 +1178,9 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>2.42</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1204,7 +1210,9 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>21923.43</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1234,7 +1242,9 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>2077.16</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1292,7 +1302,9 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>-2490</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1322,7 +1334,9 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1352,7 +1366,9 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>-600</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1376,7 +1392,9 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>-165</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1460,7 +1478,9 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>1200</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1480,7 +1500,9 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>1800</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1802,7 +1824,7 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B2:B31)</f>
-        <v>0</v>
+        <v>24866.62</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,6 +88,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -96,7 +141,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,127 +225,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,97 +241,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,84 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,17 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,21 +481,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,11 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,11 +541,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -780,11 +780,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1044,12 +1039,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1337,7 +1332,9 @@
       <c r="B9" s="3">
         <v>-1845.25</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1369,7 +1366,9 @@
       <c r="B10" s="3">
         <v>-600</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <v>-600</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1395,7 +1394,9 @@
       <c r="B11" s="3">
         <v>-165</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>-165</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1828,7 +1829,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>
-        <v>0</v>
+        <v>-2610.25</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,9 +102,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,14 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -140,26 +139,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,8 +179,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,14 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +467,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,15 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -502,6 +517,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +547,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -531,39 +564,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,7 +584,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,124 +593,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1118,7 +1118,9 @@
         <v>2463.86</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>2309.64</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1150,7 +1152,9 @@
         <v>500</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>2082.11</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1182,7 +1186,9 @@
         <v>2.42</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>500</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1214,7 +1220,9 @@
         <v>21923.43</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>2.42</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1246,7 +1254,9 @@
         <v>2077.16</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>21926.07</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1306,7 +1316,9 @@
         <v>-2490</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>-2490</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1338,7 +1350,9 @@
         <v>-1845.25</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1370,7 +1384,9 @@
         <v>-600</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>-600</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1396,7 +1412,9 @@
         <v>-165</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>-165</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1418,7 +1436,9 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>-564.26</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1832,7 +1852,7 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21155.73</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -83,6 +83,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -103,7 +111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,7 +119,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,7 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,17 +149,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,6 +176,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,7 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -187,46 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,55 +241,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,127 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,41 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,15 +487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,15 +508,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -564,6 +516,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,145 +572,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1434,7 +1434,9 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>-564.26</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
         <v>-564.26</v>
@@ -1498,9 +1500,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>1200</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1520,9 +1520,7 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>1800</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1844,7 +1842,7 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B2:B31)</f>
-        <v>24866.62</v>
+        <v>21302.36</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -33,37 +33,37 @@
     <t>8.19</t>
   </si>
   <si>
-    <t>8.5</t>
+    <t>8.20</t>
   </si>
   <si>
-    <t>8.6</t>
+    <t>8.21</t>
   </si>
   <si>
-    <t>8.7</t>
+    <t>8.22</t>
   </si>
   <si>
-    <t>8.8</t>
+    <t>8.23</t>
   </si>
   <si>
-    <t>8.9</t>
+    <t>8.24</t>
   </si>
   <si>
-    <t>8.10</t>
+    <t>8.25</t>
   </si>
   <si>
-    <t>8.11</t>
+    <t>8.26</t>
   </si>
   <si>
-    <t>8.12</t>
+    <t>8.27</t>
   </si>
   <si>
-    <t>8.13</t>
+    <t>8.28</t>
   </si>
   <si>
-    <t>8.14</t>
+    <t>8.29</t>
   </si>
   <si>
-    <t>8.15</t>
+    <t>8.30</t>
   </si>
   <si>
     <t>合计</t>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,21 +85,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,9 +102,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,21 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -163,9 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,28 +174,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,7 +194,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +218,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +470,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -506,17 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,24 +526,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,6 +544,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -780,11 +780,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1044,12 +1039,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1122,7 +1117,9 @@
         <v>2309.64</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>2357.88</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1156,7 +1153,9 @@
         <v>2082.11</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>500</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1190,7 +1189,9 @@
         <v>500</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>1926.86</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1224,7 +1225,9 @@
         <v>2.42</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>17.42</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1258,7 +1261,9 @@
         <v>21926.07</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>4.06</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1286,7 +1291,9 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>10207.1</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1320,7 +1327,9 @@
         <v>-2490</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>10000</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1354,7 +1363,9 @@
         <v>-1845.25</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1388,7 +1399,9 @@
         <v>-600</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>-600</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1416,7 +1429,9 @@
         <v>-165</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>-165</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1442,7 +1457,9 @@
         <v>-564.26</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>-796</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1858,7 +1875,7 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21607.07</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -33,37 +33,37 @@
     <t>8.19</t>
   </si>
   <si>
-    <t>8.5</t>
+    <t>8.20</t>
   </si>
   <si>
-    <t>8.6</t>
+    <t>8.21</t>
   </si>
   <si>
-    <t>8.7</t>
+    <t>8.22</t>
   </si>
   <si>
-    <t>8.8</t>
+    <t>8.23</t>
   </si>
   <si>
-    <t>8.9</t>
+    <t>8.24</t>
   </si>
   <si>
-    <t>8.10</t>
+    <t>8.25</t>
   </si>
   <si>
-    <t>8.11</t>
+    <t>8.26</t>
   </si>
   <si>
-    <t>8.12</t>
+    <t>8.27</t>
   </si>
   <si>
-    <t>8.13</t>
+    <t>8.28</t>
   </si>
   <si>
-    <t>8.14</t>
+    <t>8.29</t>
   </si>
   <si>
-    <t>8.15</t>
+    <t>8.30</t>
   </si>
   <si>
     <t>合计</t>
@@ -88,6 +88,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -97,21 +180,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,113 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,55 +241,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,127 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,26 +467,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +517,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,7 +551,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +564,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1124,23 +1124,15 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>2358.23</v>
+      </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3">
-        <v>1455.23</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1455.31</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1455.39</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1455.47</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1455.57</v>
-      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
@@ -1158,23 +1150,15 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>2102.02</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3">
-        <v>21915.63</v>
-      </c>
-      <c r="K3" s="3">
-        <v>21916.98</v>
-      </c>
-      <c r="L3" s="3">
-        <v>21917.21</v>
-      </c>
-      <c r="M3" s="3">
-        <v>21918.44</v>
-      </c>
-      <c r="N3" s="3">
-        <v>3170.44</v>
-      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
@@ -1192,23 +1176,15 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>-591.81</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>21.42</v>
-      </c>
-      <c r="K4" s="3">
-        <v>21.42</v>
-      </c>
-      <c r="L4" s="3">
-        <v>22.42</v>
-      </c>
-      <c r="M4" s="3">
-        <v>2.42</v>
-      </c>
-      <c r="N4" s="3">
-        <v>2.42</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
@@ -1226,23 +1202,15 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>1927.08</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>3464.57</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3181.78</v>
-      </c>
-      <c r="L5" s="3">
-        <v>3181.96</v>
-      </c>
-      <c r="M5" s="3">
-        <v>3160.54</v>
-      </c>
-      <c r="N5" s="3">
-        <v>21919.67</v>
-      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
@@ -1260,21 +1228,15 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>17.42</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="L6" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="M6" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="N6" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
@@ -1288,23 +1250,15 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>4.06</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>-283.83</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L7" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M7" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N7" s="3">
-        <v>-600</v>
-      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
@@ -1322,23 +1276,15 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>10208.56</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="K8" s="3">
-        <v>-1845.25</v>
-      </c>
-      <c r="L8" s="3">
-        <v>-345</v>
-      </c>
-      <c r="M8" s="3">
-        <v>-345</v>
-      </c>
-      <c r="N8" s="3">
-        <v>-345</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
@@ -1356,23 +1302,15 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>10004.06</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-345</v>
-      </c>
-      <c r="L9" s="3">
-        <v>-1845.25</v>
-      </c>
-      <c r="M9" s="3">
-        <v>-1845.25</v>
-      </c>
-      <c r="N9" s="3">
-        <v>-1845.25</v>
-      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
@@ -1390,16 +1328,14 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>-600</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3">
-        <v>-1845.25</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3">
-        <v>-700</v>
-      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1418,11 +1354,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>-165</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <v>-345</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1444,7 +1380,9 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1489,9 +1427,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3">
-        <v>6000</v>
-      </c>
+      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1866,7 +1802,7 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23419.37</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
@@ -1874,23 +1810,23 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>21292.77</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>21295.24</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
-        <v>21296.73</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>
-        <v>26556.62</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="0"/>
-        <v>21267.85</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -88,6 +88,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -97,28 +180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,15 +195,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,83 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,61 +241,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,49 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,67 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,26 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,32 +487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,7 +510,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,6 +553,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1402,7 +1402,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>-2490</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1802,7 +1804,7 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>23419.37</v>
+        <v>20929.37</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -88,6 +88,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -96,6 +104,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -104,6 +126,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -113,6 +171,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -120,44 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,38 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -216,21 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,55 +241,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,49 +385,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,73 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,15 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -487,30 +478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,8 +515,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,6 +531,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,14 +1049,13 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="9.375"/>
-    <col min="6" max="8" width="9.375"/>
-    <col min="10" max="14" width="9.375"/>
+    <col min="6" max="14" width="9.375"/>
     <col min="16" max="16" width="9.375"/>
   </cols>
   <sheetData>
@@ -1127,7 +1126,9 @@
       <c r="H2" s="3">
         <v>2358.23</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>2448.39</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1153,7 +1154,9 @@
       <c r="H3" s="3">
         <v>2102.02</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>1927.19</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1179,7 +1182,9 @@
       <c r="H4" s="3">
         <v>-591.81</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>-779.89</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1205,7 +1210,9 @@
       <c r="H5" s="3">
         <v>1927.08</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>500</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1231,7 +1238,9 @@
       <c r="H6" s="3">
         <v>17.42</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>17.42</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1253,7 +1262,9 @@
       <c r="H7" s="3">
         <v>4.06</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>4.06</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1279,7 +1290,9 @@
       <c r="H8" s="3">
         <v>10208.56</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>10209.26</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1305,7 +1318,9 @@
       <c r="H9" s="3">
         <v>10004.06</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>10005.42</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1331,7 +1346,9 @@
       <c r="H10" s="3">
         <v>-600</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>2107.21</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1357,7 +1374,9 @@
       <c r="H11" s="3">
         <v>-165</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>-165</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1383,7 +1402,9 @@
       <c r="H12" s="3">
         <v>-1845.25</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1405,7 +1426,9 @@
       <c r="H13" s="3">
         <v>-2490</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>-2490</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1425,7 +1448,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>-600</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1808,7 +1833,7 @@
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21338.81</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -88,6 +88,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -97,53 +134,49 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,39 +189,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +210,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -210,23 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,13 +241,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,169 +289,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,17 +467,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,51 +545,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1131,7 +1131,9 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3">
+        <v>2448.84</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1159,7 +1161,9 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>1927.52</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1187,7 +1191,9 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>500</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1215,7 +1221,9 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>10211.39</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1243,7 +1251,9 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>10009.48</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1267,7 +1277,9 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1295,7 +1307,9 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>2140.4</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1323,7 +1337,9 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>-799.89</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1351,7 +1367,9 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>-600</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1379,7 +1397,9 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>-165</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1407,7 +1427,9 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>-2490</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1845,7 +1867,7 @@
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21337.49</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -89,21 +89,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -111,15 +96,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,6 +135,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -157,10 +163,40 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,45 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,41 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -522,6 +487,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,17 +550,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,13 +1049,14 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="9.375"/>
     <col min="6" max="14" width="9.375"/>
+    <col min="15" max="15" width="10.375"/>
     <col min="16" max="16" width="9.375"/>
   </cols>
   <sheetData>
@@ -1136,7 +1137,9 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3">
+        <v>2449.16</v>
+      </c>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
@@ -1166,7 +1169,9 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3">
+        <v>500</v>
+      </c>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
@@ -1196,7 +1201,9 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>1927.74</v>
+      </c>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16">
@@ -1226,7 +1233,9 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>17.42</v>
+      </c>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16">
@@ -1256,7 +1265,9 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>10012.19</v>
+      </c>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16">
@@ -1282,7 +1293,9 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>10212.82</v>
+      </c>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16">
@@ -1312,7 +1325,9 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>2145.13</v>
+      </c>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
@@ -1342,7 +1357,9 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>-801.44</v>
+      </c>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16">
@@ -1372,7 +1389,9 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3">
+        <v>-600</v>
+      </c>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16">
@@ -1402,7 +1421,9 @@
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>-165</v>
+      </c>
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16">
@@ -1432,7 +1453,9 @@
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3">
+        <v>-2490</v>
+      </c>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16">
@@ -1456,7 +1479,9 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>-1845.25</v>
+      </c>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16">
@@ -1879,7 +1904,7 @@
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21362.77</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -88,13 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -110,9 +103,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +158,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -135,14 +173,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,69 +219,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,31 +241,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,25 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,19 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,97 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,26 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +506,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -522,6 +528,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,30 +564,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1543,7 +1543,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3">
+        <v>3000</v>
+      </c>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16">
@@ -1904,7 +1906,7 @@
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
-        <v>21362.77</v>
+        <v>24362.77</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
 序号</t>
   </si>
   <si>
-    <t>8.16</t>
+    <t>8.31</t>
   </si>
   <si>
-    <t>8.17</t>
+    <t>9.01</t>
   </si>
   <si>
     <t>8.18</t>
@@ -75,8 +75,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -88,11 +88,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,32 +141,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,8 +154,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -164,32 +185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,20 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -225,10 +224,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,6 +241,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,19 +289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,151 +301,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +467,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -491,17 +506,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,50 +564,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -780,11 +780,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1044,12 +1039,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1115,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>2463.86</v>
+        <v>2774.65</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
@@ -1147,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
@@ -1179,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>2.42</v>
+        <v>17.42</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
@@ -1211,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>21923.43</v>
+        <v>1928.07</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
@@ -1243,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>2077.16</v>
+        <v>10214.95</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -1274,7 +1269,9 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>10016.25</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1462,7 +1459,9 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>1348.75</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1854,7 +1853,7 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B2:B31)</f>
-        <v>21302.36</v>
+        <v>24135.58</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t xml:space="preserve">    日期
 序号</t>
@@ -27,37 +27,37 @@
     <t>9.01</t>
   </si>
   <si>
-    <t>8.18</t>
+    <t>9.02</t>
   </si>
   <si>
-    <t>8.19</t>
+    <t>9.03</t>
   </si>
   <si>
-    <t>8.20</t>
+    <t>9.04</t>
   </si>
   <si>
-    <t>8.21</t>
+    <t>9.05</t>
   </si>
   <si>
-    <t>8.22</t>
+    <t>9.06</t>
   </si>
   <si>
-    <t>8.23</t>
+    <t>9.07</t>
   </si>
   <si>
-    <t>8.24</t>
+    <t>9.08</t>
   </si>
   <si>
-    <t>8.25</t>
+    <t>9.09</t>
   </si>
   <si>
-    <t>8.26</t>
+    <t>9.10</t>
   </si>
   <si>
-    <t>8.27</t>
+    <t>9.11</t>
   </si>
   <si>
-    <t>8.28</t>
+    <t>9.12</t>
   </si>
   <si>
     <t>8.29</t>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>驾考费用</t>
+  </si>
+  <si>
+    <t>科目一</t>
   </si>
 </sst>
 </file>
@@ -88,21 +94,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -118,8 +109,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +165,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,15 +185,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,30 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -192,17 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,22 +237,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +473,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -478,15 +508,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +536,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -534,36 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -780,6 +786,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1039,12 +1050,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1114,7 +1125,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
-        <v>2309.64</v>
+        <v>2362.99</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1146,7 +1157,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
-        <v>2082.11</v>
+        <v>3300</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1178,7 +1189,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
-        <v>500</v>
+        <v>1928.4</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1210,7 +1221,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>2.42</v>
+        <v>17.42</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1242,7 +1253,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
-        <v>21926.07</v>
+        <v>10217.05</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1273,7 +1284,9 @@
         <v>10016.25</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>10020.31</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1304,7 +1317,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>-2490</v>
+        <v>1359.6</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1336,7 +1349,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>-1845.25</v>
+        <v>4.06</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1368,7 +1381,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>-600</v>
+        <v>-2490</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1400,7 +1413,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>-165</v>
+        <v>-1845.25</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1432,7 +1445,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <v>-564.26</v>
+        <v>-970.67</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1463,7 +1476,9 @@
         <v>1348.75</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>-600</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1489,7 +1504,9 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>-165</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1861,7 +1878,7 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>21155.73</v>
+        <v>23138.91</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
@@ -1910,6 +1927,19 @@
       <c r="P32" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -82,8 +82,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,6 +91,27 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,11 +130,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,11 +169,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,30 +216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,58 +231,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -247,37 +247,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,145 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +498,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -508,6 +534,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,50 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1128,14 +1128,12 @@
         <v>2362.99</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>2571.13</v>
+      </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3">
-        <v>2358.23</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2448.39</v>
-      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
@@ -1160,14 +1158,12 @@
         <v>3300</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>3300</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <v>2102.02</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1927.19</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
@@ -1192,14 +1188,12 @@
         <v>1928.4</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>1407.22</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>-591.81</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-779.89</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
@@ -1224,14 +1218,12 @@
         <v>17.42</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>17.42</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>1927.08</v>
-      </c>
-      <c r="I5" s="3">
-        <v>500</v>
-      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3">
@@ -1256,14 +1248,12 @@
         <v>10217.05</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>1361.1</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="I6" s="3">
-        <v>17.42</v>
-      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
@@ -1288,14 +1278,12 @@
         <v>10020.31</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>10021.67</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>4.06</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4.06</v>
-      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
@@ -1320,14 +1308,12 @@
         <v>1359.6</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>10217.87</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>10208.56</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10209.26</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3">
@@ -1352,14 +1338,12 @@
         <v>4.06</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>-2490</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <v>10004.06</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10005.42</v>
-      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
@@ -1386,12 +1370,8 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2107.21</v>
-      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
@@ -1416,14 +1396,12 @@
         <v>-1845.25</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>-600</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>-165</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-165</v>
-      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
@@ -1448,14 +1426,12 @@
         <v>-970.67</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>-1280.67</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>-1845.25</v>
-      </c>
-      <c r="I12" s="3">
-        <v>-1845.25</v>
-      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
@@ -1482,12 +1458,8 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="I13" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1511,9 +1483,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>-600</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1886,7 +1856,7 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24525.74</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
@@ -1894,11 +1864,11 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>20929.37</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
-        <v>21338.81</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
@@ -1929,17 +1899,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" t="s">
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
         <v>18</v>
       </c>
-      <c r="C40">
-        <v>460</v>
+      <c r="C85">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -82,8 +82,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,7 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,7 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,39 +131,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +152,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,9 +168,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,13 +190,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -231,8 +206,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,37 +247,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,145 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,16 +483,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,26 +514,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,15 +526,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +544,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,11 +786,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1050,12 +1045,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1456,7 +1451,9 @@
         <v>-600</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1856,7 +1853,7 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>24525.74</v>
+        <v>23201.75</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,20 +91,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,14 +117,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,13 +148,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,9 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,9 +184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +194,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,25 +247,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,157 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,17 +482,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,32 +511,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,11 +549,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,19 +590,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,82 +611,88 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,28 +701,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1126,7 +1126,9 @@
       <c r="F2" s="3">
         <v>2571.13</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>2571.29</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1156,7 +1158,9 @@
       <c r="F3" s="3">
         <v>3300</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>1300</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1186,7 +1190,9 @@
       <c r="F4" s="3">
         <v>1407.22</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>1407.29</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1216,7 +1222,9 @@
       <c r="F5" s="3">
         <v>17.42</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>17.42</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1246,7 +1254,9 @@
       <c r="F6" s="3">
         <v>1361.1</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>4.06</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1276,7 +1286,9 @@
       <c r="F7" s="3">
         <v>10021.67</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>10218.56</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1306,7 +1318,9 @@
       <c r="F8" s="3">
         <v>10217.87</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>10023.02</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1336,7 +1350,9 @@
       <c r="F9" s="3">
         <v>-2490</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>2000</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1364,7 +1380,9 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1394,7 +1412,9 @@
       <c r="F11" s="3">
         <v>-600</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>-600</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1424,7 +1444,9 @@
       <c r="F12" s="3">
         <v>-1280.67</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>-2490</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1454,7 +1476,9 @@
       <c r="F13" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>1362.59</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1478,7 +1502,9 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>-1280.67</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1857,7 +1883,7 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23209.57</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,6 +94,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -117,6 +125,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -124,7 +139,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,7 +155,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,17 +178,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,8 +192,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,47 +222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,181 +247,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,8 +475,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -484,10 +486,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -532,6 +532,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,15 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,6 +786,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1045,12 +1050,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1129,7 +1134,9 @@
       <c r="G2" s="3">
         <v>2571.29</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>2571.44</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1161,7 +1168,9 @@
       <c r="G3" s="3">
         <v>1300</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>1300</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1193,7 +1202,9 @@
       <c r="G4" s="3">
         <v>1407.29</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>147.37</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1225,7 +1236,9 @@
       <c r="G5" s="3">
         <v>17.42</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>17.42</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1257,7 +1270,9 @@
       <c r="G6" s="3">
         <v>4.06</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>4.06</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1289,7 +1304,9 @@
       <c r="G7" s="3">
         <v>10218.56</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>10219.26</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1321,7 +1338,9 @@
       <c r="G8" s="3">
         <v>10023.02</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>2000.24</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1353,7 +1372,9 @@
       <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>10024.38</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1383,7 +1404,9 @@
       <c r="G10" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>1362.66</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1415,7 +1438,9 @@
       <c r="G11" s="3">
         <v>-600</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>-1563.87</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1447,7 +1472,9 @@
       <c r="G12" s="3">
         <v>-2490</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>-2490</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1479,7 +1506,9 @@
       <c r="G13" s="3">
         <v>1362.59</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1887,7 +1916,7 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22268.97</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t xml:space="preserve">    日期
 序号</t>
@@ -69,6 +69,9 @@
     <t>合计</t>
   </si>
   <si>
+    <t>差额</t>
+  </si>
+  <si>
     <t>驾考费用</t>
   </si>
   <si>
@@ -80,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,7 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,7 +106,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,29 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,29 +139,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,7 +159,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,25 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,50 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -535,8 +494,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +553,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,43 +593,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -635,92 +638,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,6 +731,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1055,13 +1061,20 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="4" width="9.375"/>
-    <col min="6" max="14" width="9.375"/>
+    <col min="2" max="3" width="9.375"/>
+    <col min="4" max="4" width="10.375"/>
+    <col min="5" max="5" width="9.375"/>
+    <col min="6" max="6" width="10.375"/>
+    <col min="7" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="9.375"/>
+    <col min="12" max="12" width="10.375"/>
+    <col min="13" max="14" width="9.375"/>
     <col min="15" max="15" width="10.375"/>
     <col min="16" max="16" width="9.375"/>
   </cols>
@@ -1138,7 +1151,9 @@
         <v>2571.44</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3">
+        <v>1375.51</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
         <v>2448.84</v>
@@ -1172,7 +1187,9 @@
         <v>1300</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>2571.78</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>1927.52</v>
@@ -1206,7 +1223,9 @@
         <v>147.37</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <v>17.42</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
         <v>500</v>
@@ -1240,7 +1259,9 @@
         <v>17.42</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>4.06</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3">
         <v>10211.39</v>
@@ -1274,7 +1295,9 @@
         <v>4.06</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>1362.81</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
         <v>10009.48</v>
@@ -1308,7 +1331,9 @@
         <v>10219.26</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>10220.68</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
         <v>-1845.25</v>
@@ -1342,7 +1367,9 @@
         <v>2000.24</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>12027.8</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3">
         <v>2140.4</v>
@@ -1442,7 +1469,9 @@
         <v>-1563.87</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>-2490</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
         <v>-165</v>
@@ -1476,7 +1505,9 @@
         <v>-2490</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
         <v>-2490</v>
@@ -1510,7 +1541,9 @@
         <v>-1323.99</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <v>-600</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1536,7 +1569,9 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3">
+        <v>-1603.16</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1924,7 +1959,7 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21562.91</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
@@ -1951,14 +1986,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4">
+        <f>B32-C32</f>
+        <v>24135.58</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ref="D33:P33" si="1">C32-D32</f>
+        <v>-23138.91</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="1"/>
+        <v>23138.91</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="1"/>
+        <v>-23201.75</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="1"/>
+        <v>-7.81999999999607</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="1"/>
+        <v>940.600000000002</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="1"/>
+        <v>22268.97</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="1"/>
+        <v>-21562.91</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="1"/>
+        <v>21562.91</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="1"/>
+        <v>-21337.49</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="1"/>
+        <v>21337.49</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="1"/>
+        <v>-24362.77</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="1"/>
+        <v>24362.77</v>
+      </c>
+    </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>570</v>
@@ -1966,6 +2062,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,6 +94,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,7 +113,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,39 +134,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,7 +173,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -189,15 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,36 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,37 +250,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,145 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,15 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -524,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +541,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -564,15 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,7 +593,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,128 +602,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,9 +731,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1061,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1154,10 +1151,10 @@
       <c r="J2" s="3">
         <v>1375.51</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3">
-        <v>2448.84</v>
-      </c>
+      <c r="K2" s="3">
+        <v>1362.88</v>
+      </c>
+      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3">
@@ -1190,10 +1187,10 @@
       <c r="J3" s="3">
         <v>2571.78</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
-        <v>1927.52</v>
-      </c>
+      <c r="K3" s="3">
+        <v>1655.08</v>
+      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3">
@@ -1226,10 +1223,10 @@
       <c r="J4" s="3">
         <v>17.42</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
-        <v>500</v>
-      </c>
+      <c r="K4" s="3">
+        <v>17.42</v>
+      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3">
@@ -1262,10 +1259,10 @@
       <c r="J5" s="3">
         <v>4.06</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3">
-        <v>10211.39</v>
-      </c>
+      <c r="K5" s="3">
+        <v>4.06</v>
+      </c>
+      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3">
@@ -1298,10 +1295,10 @@
       <c r="J6" s="3">
         <v>1362.81</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
-        <v>10009.48</v>
-      </c>
+      <c r="K6" s="3">
+        <v>10221.38</v>
+      </c>
+      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3">
@@ -1334,10 +1331,10 @@
       <c r="J7" s="3">
         <v>10220.68</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
-        <v>-1845.25</v>
-      </c>
+      <c r="K7" s="3">
+        <v>12029.4</v>
+      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3">
@@ -1370,10 +1367,10 @@
       <c r="J8" s="3">
         <v>12027.8</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <v>2140.4</v>
-      </c>
+      <c r="K8" s="3">
+        <v>3556.95</v>
+      </c>
+      <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3">
@@ -1405,9 +1402,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <v>-799.89</v>
-      </c>
+      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3">
@@ -1437,9 +1432,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>-600</v>
-      </c>
+      <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3">
@@ -1472,10 +1465,10 @@
       <c r="J11" s="3">
         <v>-2490</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>-165</v>
-      </c>
+      <c r="K11" s="3">
+        <v>-2490</v>
+      </c>
+      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3">
@@ -1508,10 +1501,10 @@
       <c r="J12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="K12" s="3">
+        <v>-1323.99</v>
+      </c>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3">
@@ -1544,7 +1537,9 @@
       <c r="J13" s="3">
         <v>-600</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>-600</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1572,7 +1567,9 @@
       <c r="J14" s="3">
         <v>-1603.16</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>-1654.39</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1963,11 +1960,11 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22778.79</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
-        <v>21337.49</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>
@@ -1987,62 +1984,62 @@
       </c>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f>B32-C32</f>
         <v>24135.58</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <f t="shared" ref="D33:P33" si="1">C32-D32</f>
         <v>-23138.91</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <f t="shared" si="1"/>
         <v>23138.91</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <f t="shared" si="1"/>
         <v>-23201.75</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <f t="shared" si="1"/>
         <v>-7.81999999999607</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f t="shared" si="1"/>
         <v>940.600000000002</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <f t="shared" si="1"/>
         <v>22268.97</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <f t="shared" si="1"/>
         <v>-21562.91</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <f t="shared" si="1"/>
-        <v>21562.91</v>
-      </c>
-      <c r="L33" s="4">
+        <v>-1215.88</v>
+      </c>
+      <c r="L33" s="3">
         <f t="shared" si="1"/>
-        <v>-21337.49</v>
-      </c>
-      <c r="M33" s="4">
-        <f t="shared" si="1"/>
-        <v>21337.49</v>
-      </c>
-      <c r="N33" s="4">
+        <v>22778.79</v>
+      </c>
+      <c r="M33" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O33" s="4">
+      <c r="N33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <f t="shared" si="1"/>
         <v>-24362.77</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <f t="shared" si="1"/>
         <v>24362.77</v>
       </c>

--- a/a.xlsx
+++ b/a.xlsx
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,7 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,10 +112,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,33 +133,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,23 +155,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,15 +178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -218,9 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,9 +209,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +476,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -493,8 +511,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -511,15 +531,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,17 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1154,7 +1154,9 @@
       <c r="K2" s="3">
         <v>1362.88</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3">
+        <v>4037.13</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3">
@@ -1190,7 +1192,9 @@
       <c r="K3" s="3">
         <v>1655.08</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>1155.14</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3">
@@ -1226,7 +1230,9 @@
       <c r="K4" s="3">
         <v>17.42</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>17.42</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3">
@@ -1262,7 +1268,9 @@
       <c r="K5" s="3">
         <v>4.06</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>1373.24</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3">
@@ -1298,7 +1306,9 @@
       <c r="K6" s="3">
         <v>10221.38</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>10222.11</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3">
@@ -1334,7 +1344,9 @@
       <c r="K7" s="3">
         <v>12029.4</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>12030.98</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3">
@@ -1468,7 +1480,9 @@
       <c r="K11" s="3">
         <v>-2490</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>-2490</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3">
@@ -1504,7 +1518,9 @@
       <c r="K12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3">
@@ -1540,7 +1556,9 @@
       <c r="K13" s="3">
         <v>-600</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>-600</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3">
@@ -1570,7 +1588,9 @@
       <c r="K14" s="3">
         <v>-1654.39</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>-1654.39</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1964,7 +1984,7 @@
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22767.64</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>
@@ -2025,11 +2045,11 @@
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>
-        <v>22778.79</v>
+        <v>11.1500000000015</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22767.64</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,36 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,7 +113,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,23 +134,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,37 +154,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,6 +180,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,49 +250,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,49 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,79 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,20 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +518,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -535,17 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,21 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,8 +1057,8 @@
   <sheetPr/>
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1157,11 +1157,11 @@
       <c r="L2" s="3">
         <v>4037.13</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3">
+        <v>4037.43</v>
+      </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="3">
-        <v>2449.16</v>
-      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
@@ -1195,11 +1195,11 @@
       <c r="L3" s="3">
         <v>1155.14</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>563.54</v>
+      </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="3">
-        <v>500</v>
-      </c>
+      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
@@ -1233,11 +1233,11 @@
       <c r="L4" s="3">
         <v>17.42</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>1155.2</v>
+      </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="3">
-        <v>1927.74</v>
-      </c>
+      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16">
@@ -1271,11 +1271,11 @@
       <c r="L5" s="3">
         <v>1373.24</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>10222.87</v>
+      </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="3">
-        <v>17.42</v>
-      </c>
+      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16">
@@ -1309,11 +1309,11 @@
       <c r="L6" s="3">
         <v>10222.11</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>12032.58</v>
+      </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>10012.19</v>
-      </c>
+      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16">
@@ -1347,11 +1347,11 @@
       <c r="L7" s="3">
         <v>12030.98</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>17.42</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="3">
-        <v>10212.82</v>
-      </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16">
@@ -1383,11 +1383,11 @@
         <v>3556.95</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.06</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="3">
-        <v>2145.13</v>
-      </c>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
@@ -1417,9 +1417,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3">
-        <v>-801.44</v>
-      </c>
+      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16">
@@ -1447,9 +1445,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>-600</v>
-      </c>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16">
@@ -1483,11 +1479,11 @@
       <c r="L11" s="3">
         <v>-2490</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>-2490</v>
+      </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <v>-165</v>
-      </c>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16">
@@ -1521,11 +1517,11 @@
       <c r="L12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16">
@@ -1559,11 +1555,11 @@
       <c r="L13" s="3">
         <v>-600</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>-600</v>
+      </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="3">
-        <v>-1845.25</v>
-      </c>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16">
@@ -1591,7 +1587,9 @@
       <c r="L14" s="3">
         <v>-1654.39</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>-897.37</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1633,9 +1631,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3">
-        <v>3000</v>
-      </c>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16">
@@ -1988,7 +1984,7 @@
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22721.74</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="0"/>
@@ -1996,7 +1992,7 @@
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
-        <v>24362.77</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="0"/>
@@ -2049,19 +2045,19 @@
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>
-        <v>22767.64</v>
+        <v>45.8999999999978</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22721.74</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="1"/>
-        <v>-24362.77</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" si="1"/>
-        <v>24362.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:2">

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,21 +99,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,9 +118,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +163,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -157,9 +186,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,67 +235,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +502,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,44 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,8 +1057,8 @@
   <sheetPr/>
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1160,7 +1160,9 @@
       <c r="M2" s="3">
         <v>4037.43</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3">
+        <v>3773.71</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
@@ -1198,7 +1200,9 @@
       <c r="M3" s="3">
         <v>563.54</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3">
+        <v>955.26</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
@@ -1236,7 +1240,9 @@
       <c r="M4" s="3">
         <v>1155.2</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3">
+        <v>561.11</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
@@ -1274,7 +1280,9 @@
       <c r="M5" s="3">
         <v>10222.87</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>10223.69</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
@@ -1312,7 +1320,9 @@
       <c r="M6" s="3">
         <v>12032.58</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3">
+        <v>12034.14</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
@@ -1350,7 +1360,9 @@
       <c r="M7" s="3">
         <v>17.42</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>17.42</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
@@ -1386,7 +1398,9 @@
       <c r="M8" s="3">
         <v>4.06</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3">
+        <v>4.06</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
@@ -1482,7 +1496,9 @@
       <c r="M11" s="3">
         <v>-2490</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N11" s="3">
+        <v>-2490</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
@@ -1520,7 +1536,9 @@
       <c r="M12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
@@ -1558,7 +1576,9 @@
       <c r="M13" s="3">
         <v>-600</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3">
+        <v>-600</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
@@ -1590,7 +1610,9 @@
       <c r="M14" s="3">
         <v>-897.37</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3">
+        <v>-1164.87</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
@@ -1988,7 +2010,7 @@
       </c>
       <c r="N32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21990.53</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
@@ -2049,11 +2071,11 @@
       </c>
       <c r="N33" s="3">
         <f t="shared" si="1"/>
-        <v>22721.74</v>
+        <v>731.210000000003</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21990.53</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -21,49 +21,49 @@
 序号</t>
   </si>
   <si>
-    <t>8.31</t>
+    <t>9.14</t>
   </si>
   <si>
-    <t>9.01</t>
+    <t>9.15</t>
   </si>
   <si>
-    <t>9.02</t>
+    <t>9.16</t>
   </si>
   <si>
-    <t>9.03</t>
+    <t>9.17</t>
   </si>
   <si>
-    <t>9.04</t>
+    <t>9.18</t>
   </si>
   <si>
-    <t>9.05</t>
+    <t>9.19</t>
   </si>
   <si>
-    <t>9.06</t>
+    <t>9.20</t>
   </si>
   <si>
-    <t>9.07</t>
+    <t>9.21</t>
   </si>
   <si>
-    <t>9.08</t>
+    <t>9.22</t>
   </si>
   <si>
-    <t>9.09</t>
+    <t>9.23</t>
   </si>
   <si>
-    <t>9.10</t>
+    <t>9.24</t>
   </si>
   <si>
-    <t>9.11</t>
+    <t>9.25</t>
   </si>
   <si>
-    <t>9.12</t>
+    <t>9.26</t>
   </si>
   <si>
-    <t>8.29</t>
+    <t>9.27</t>
   </si>
   <si>
-    <t>8.30</t>
+    <t>9.28</t>
   </si>
   <si>
     <t>合计</t>
@@ -83,9 +83,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -98,7 +98,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,22 +156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,9 +172,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,36 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,30 +240,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +476,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,35 +513,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -573,6 +547,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1133,36 +1133,20 @@
       <c r="B2" s="3">
         <v>2774.65</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>2362.99</v>
-      </c>
+      <c r="C2" s="3">
+        <v>4207.58</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3">
-        <v>2571.13</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2571.29</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2571.44</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3">
-        <v>1375.51</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1362.88</v>
-      </c>
-      <c r="L2" s="3">
-        <v>4037.13</v>
-      </c>
-      <c r="M2" s="3">
-        <v>4037.43</v>
-      </c>
-      <c r="N2" s="3">
-        <v>3773.71</v>
-      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
@@ -1173,36 +1157,20 @@
       <c r="B3" s="3">
         <v>3500</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>3300</v>
-      </c>
+      <c r="C3" s="3">
+        <v>488.81</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1300</v>
-      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3">
-        <v>2571.78</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1655.08</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1155.14</v>
-      </c>
-      <c r="M3" s="3">
-        <v>563.54</v>
-      </c>
-      <c r="N3" s="3">
-        <v>955.26</v>
-      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
@@ -1213,36 +1181,20 @@
       <c r="B4" s="3">
         <v>17.42</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>1928.4</v>
-      </c>
+      <c r="C4" s="3">
+        <v>200</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3">
-        <v>1407.22</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1407.29</v>
-      </c>
-      <c r="H4" s="3">
-        <v>147.37</v>
-      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="K4" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="L4" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1155.2</v>
-      </c>
-      <c r="N4" s="3">
-        <v>561.11</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
@@ -1253,36 +1205,20 @@
       <c r="B5" s="3">
         <v>1928.07</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>17.42</v>
-      </c>
+      <c r="C5" s="3">
+        <v>828.94</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="G5" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="H5" s="3">
-        <v>17.42</v>
-      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>4.06</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4.06</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1373.24</v>
-      </c>
-      <c r="M5" s="3">
-        <v>10222.87</v>
-      </c>
-      <c r="N5" s="3">
-        <v>10223.69</v>
-      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
@@ -1293,36 +1229,20 @@
       <c r="B6" s="3">
         <v>10214.95</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>10217.05</v>
-      </c>
+      <c r="C6" s="3">
+        <v>17.42</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>1361.1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4.06</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4.06</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3">
-        <v>1362.81</v>
-      </c>
-      <c r="K6" s="3">
-        <v>10221.38</v>
-      </c>
-      <c r="L6" s="3">
-        <v>10222.11</v>
-      </c>
-      <c r="M6" s="3">
-        <v>12032.58</v>
-      </c>
-      <c r="N6" s="3">
-        <v>12034.14</v>
-      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
@@ -1333,36 +1253,20 @@
       <c r="B7" s="3">
         <v>10016.25</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>10020.31</v>
-      </c>
+      <c r="C7" s="3">
+        <v>4.06</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3">
-        <v>10021.67</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10218.56</v>
-      </c>
-      <c r="H7" s="3">
-        <v>10219.26</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>10220.68</v>
-      </c>
-      <c r="K7" s="3">
-        <v>12029.4</v>
-      </c>
-      <c r="L7" s="3">
-        <v>12030.98</v>
-      </c>
-      <c r="M7" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="N7" s="3">
-        <v>17.42</v>
-      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
@@ -1373,34 +1277,20 @@
       <c r="B8" s="3">
         <v>-2490</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>1359.6</v>
-      </c>
+      <c r="C8" s="3">
+        <v>10225.89</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>10217.87</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10023.02</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2000.24</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3">
-        <v>12027.8</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3556.95</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3">
-        <v>4.06</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4.06</v>
-      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
@@ -1411,20 +1301,14 @@
       <c r="B9" s="3">
         <v>-1845.25</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>4.06</v>
-      </c>
+      <c r="C9" s="3">
+        <v>12038.95</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10024.38</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1442,17 +1326,11 @@
         <v>-600</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1362.66</v>
-      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1469,36 +1347,20 @@
       <c r="B11" s="3">
         <v>-165</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>-1845.25</v>
-      </c>
+      <c r="C11" s="3">
+        <v>-600</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-1563.87</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="M11" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="N11" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
@@ -1509,36 +1371,20 @@
       <c r="B12" s="3">
         <v>-564.26</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>-970.67</v>
-      </c>
+      <c r="C12" s="3">
+        <v>-1323.99</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>-1280.67</v>
-      </c>
-      <c r="G12" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="H12" s="3">
-        <v>-2490</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="K12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="L12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="M12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="N12" s="3">
-        <v>-1323.99</v>
-      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
@@ -1549,36 +1395,20 @@
       <c r="B13" s="3">
         <v>1348.75</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>-600</v>
-      </c>
+      <c r="C13" s="3">
+        <v>-2490</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1362.59</v>
-      </c>
-      <c r="H13" s="3">
-        <v>-1323.99</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K13" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L13" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M13" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N13" s="3">
-        <v>-600</v>
-      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
@@ -1587,32 +1417,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
-        <v>-165</v>
-      </c>
+      <c r="C14" s="3">
+        <v>-1180.22</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>-1280.67</v>
-      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <v>-1603.16</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-1654.39</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-1654.39</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-897.37</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-1164.87</v>
-      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
@@ -1966,11 +1784,11 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>
-        <v>0</v>
+        <v>22417.44</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>23138.91</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
@@ -1978,15 +1796,15 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>23201.75</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>23209.57</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>22268.97</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
@@ -1994,23 +1812,23 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>21562.91</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>22778.79</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
-        <v>22767.64</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>
-        <v>22721.74</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="0"/>
-        <v>21990.53</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
@@ -2027,55 +1845,55 @@
       </c>
       <c r="C33" s="3">
         <f>B32-C32</f>
-        <v>24135.58</v>
+        <v>1718.14</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ref="D33:P33" si="1">C32-D32</f>
-        <v>-23138.91</v>
+        <v>22417.44</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>23138.91</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>-23201.75</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>-7.81999999999607</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>940.600000000002</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="1"/>
-        <v>22268.97</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
-        <v>-21562.91</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="1"/>
-        <v>-1215.88</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>
-        <v>11.1500000000015</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>
-        <v>45.8999999999978</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="1"/>
-        <v>731.210000000003</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="1"/>
-        <v>21990.53</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -83,15 +83,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -104,22 +119,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -142,30 +173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -179,8 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,17 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,11 +234,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -250,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,20 +476,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,22 +525,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +556,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -558,21 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,145 +581,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1136,8 +1136,12 @@
       <c r="C2" s="3">
         <v>4207.58</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3">
+        <v>4207.58</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4369.9</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1160,8 +1164,12 @@
       <c r="C3" s="3">
         <v>488.81</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3">
+        <v>488.81</v>
+      </c>
+      <c r="E3" s="3">
+        <v>487.2</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1184,8 +1192,12 @@
       <c r="C4" s="3">
         <v>200</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1208,8 +1220,12 @@
       <c r="C5" s="3">
         <v>828.94</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3">
+        <v>828.94</v>
+      </c>
+      <c r="E5" s="3">
+        <v>829.02</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1232,8 +1248,12 @@
       <c r="C6" s="3">
         <v>17.42</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3">
+        <v>17.42</v>
+      </c>
+      <c r="E6" s="3">
+        <v>17.42</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1256,8 +1276,12 @@
       <c r="C7" s="3">
         <v>4.06</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3">
+        <v>4.06</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.06</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1280,8 +1304,12 @@
       <c r="C8" s="3">
         <v>10225.89</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3">
+        <v>10225.89</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10227.33</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1304,8 +1332,12 @@
       <c r="C9" s="3">
         <v>12038.95</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3">
+        <v>12038.95</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12042.14</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1350,8 +1382,12 @@
       <c r="C11" s="3">
         <v>-600</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-600</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1374,8 +1410,12 @@
       <c r="C12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3">
+        <v>-1323.99</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1398,8 +1438,12 @@
       <c r="C13" s="3">
         <v>-2490</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3">
+        <v>-2490</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-2490</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1420,8 +1464,12 @@
       <c r="C14" s="3">
         <v>-1180.22</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3">
+        <v>-1180.22</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1442.22</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1788,11 +1836,11 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22417.44</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22320.86</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
@@ -1849,15 +1897,15 @@
       </c>
       <c r="D33" s="3">
         <f t="shared" ref="D33:P33" si="1">C32-D32</f>
-        <v>22417.44</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96.5800000000017</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22320.86</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -104,11 +104,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,7 +135,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,20 +167,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,6 +188,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -173,24 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,21 +213,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,14 +227,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,13 +250,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,73 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,85 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,32 +476,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,15 +509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,15 +526,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -573,6 +534,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1142,7 +1142,9 @@
       <c r="E2" s="3">
         <v>4369.9</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>4369.9</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1170,7 +1172,9 @@
       <c r="E3" s="3">
         <v>487.2</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>829.06</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1198,7 +1202,9 @@
       <c r="E4" s="3">
         <v>200</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>200</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1226,7 +1232,9 @@
       <c r="E5" s="3">
         <v>829.02</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>481.91</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1254,7 +1262,9 @@
       <c r="E6" s="3">
         <v>17.42</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>17.42</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1282,7 +1292,9 @@
       <c r="E7" s="3">
         <v>4.06</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>4.02</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1310,7 +1322,9 @@
       <c r="E8" s="3">
         <v>10227.33</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>10228.1</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1338,7 +1352,9 @@
       <c r="E9" s="3">
         <v>12042.14</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>12043.74</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1388,7 +1404,9 @@
       <c r="E11" s="3">
         <v>-600</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>-600</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1416,7 +1434,9 @@
       <c r="E12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1444,7 +1464,9 @@
       <c r="E13" s="3">
         <v>-2490</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>-2400</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1470,7 +1492,9 @@
       <c r="E14" s="3">
         <v>-1442.22</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>-1442.22</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1844,7 +1868,7 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22407.94</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
@@ -1905,11 +1929,11 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>22320.86</v>
+        <v>-87.0800000000017</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22407.94</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -84,9 +84,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,6 +105,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -112,7 +126,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -120,14 +134,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,14 +156,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,23 +171,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -188,13 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -203,23 +202,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,9 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,13 +250,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +400,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,150 +431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,26 +485,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +516,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,8 +538,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,16 +593,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,13 +611,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,100 +629,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1145,7 +1145,9 @@
       <c r="F2" s="3">
         <v>4369.9</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>4369.9</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1175,7 +1177,9 @@
       <c r="F3" s="3">
         <v>829.06</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>829.06</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1205,7 +1209,9 @@
       <c r="F4" s="3">
         <v>200</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1235,7 +1241,9 @@
       <c r="F5" s="3">
         <v>481.91</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>481.91</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1265,7 +1273,9 @@
       <c r="F6" s="3">
         <v>17.42</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>17.42</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1295,7 +1305,9 @@
       <c r="F7" s="3">
         <v>4.02</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>4.02</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1325,7 +1337,9 @@
       <c r="F8" s="3">
         <v>10228.1</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>10228.1</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1355,7 +1369,9 @@
       <c r="F9" s="3">
         <v>12043.74</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>12043.74</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1407,7 +1423,9 @@
       <c r="F11" s="3">
         <v>-600</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>-600</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1437,7 +1455,9 @@
       <c r="F12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1467,7 +1487,9 @@
       <c r="F13" s="3">
         <v>-2400</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>-2400</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1495,7 +1517,9 @@
       <c r="F14" s="3">
         <v>-1442.22</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>-1442.22</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1872,7 +1896,7 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22207.94</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
@@ -1933,11 +1957,11 @@
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>22407.94</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22207.94</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,7 +98,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,29 +158,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,31 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -187,24 +203,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,25 +227,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -250,181 +250,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,11 +476,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +526,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -505,16 +544,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -534,45 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1148,9 +1148,15 @@
       <c r="G2" s="3">
         <v>4369.9</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="3">
+        <v>4369.9</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4373.79</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4334.01</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1180,9 +1186,15 @@
       <c r="G3" s="3">
         <v>829.06</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="3">
+        <v>829.06</v>
+      </c>
+      <c r="I3" s="3">
+        <v>865.05</v>
+      </c>
+      <c r="J3" s="3">
+        <v>865.05</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1212,9 +1224,15 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2000.31</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2000.31</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1244,9 +1262,15 @@
       <c r="G5" s="3">
         <v>481.91</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="3">
+        <v>481.91</v>
+      </c>
+      <c r="I5" s="3">
+        <v>17.42</v>
+      </c>
+      <c r="J5" s="3">
+        <v>17.42</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1276,9 +1300,15 @@
       <c r="G6" s="3">
         <v>17.42</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3">
+        <v>17.42</v>
+      </c>
+      <c r="I6" s="3">
+        <v>484.8</v>
+      </c>
+      <c r="J6" s="3">
+        <v>484.8</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1308,9 +1338,15 @@
       <c r="G7" s="3">
         <v>4.02</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="3">
+        <v>4.02</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4.02</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4.02</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1340,9 +1376,15 @@
       <c r="G8" s="3">
         <v>10228.1</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="3">
+        <v>10228.1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10230.33</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10230.33</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1372,9 +1414,15 @@
       <c r="G9" s="3">
         <v>12043.74</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="3">
+        <v>12043.74</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10000.69</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10000.69</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1426,9 +1474,15 @@
       <c r="G11" s="3">
         <v>-600</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-600</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1458,9 +1512,15 @@
       <c r="G12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="3">
+        <v>-1323.99</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-1323.99</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1490,9 +1550,15 @@
       <c r="G13" s="3">
         <v>-2400</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-2400</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1520,9 +1586,16 @@
       <c r="G14" s="3">
         <v>-1442.22</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="3">
+        <v>-1442.22</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-1444.36</v>
+      </c>
+      <c r="J14" s="3">
+        <f>-1444.36-109</f>
+        <v>-1553.36</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1900,15 +1973,15 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22207.94</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22208.06</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22059.28</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
@@ -1961,19 +2034,19 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>22207.94</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.120000000002619</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>148.779999999999</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22059.28</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -97,8 +97,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +160,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,112 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,13 +250,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,25 +316,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,139 +394,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +495,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -515,11 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,19 +553,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,21 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1157,7 +1157,9 @@
       <c r="J2" s="3">
         <v>4334.01</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <v>4334.35</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1195,7 +1197,9 @@
       <c r="J3" s="3">
         <v>865.05</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>865.13</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1233,7 +1237,9 @@
       <c r="J4" s="3">
         <v>2000.31</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>17.44</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1271,7 +1277,9 @@
       <c r="J5" s="3">
         <v>17.42</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>2004.4</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1309,7 +1317,9 @@
       <c r="J6" s="3">
         <v>484.8</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>484.82</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1385,7 +1395,9 @@
       <c r="J8" s="3">
         <v>10230.33</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>10231.75</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1423,7 +1435,9 @@
       <c r="J9" s="3">
         <v>10000.69</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>10001.33</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1483,7 +1497,9 @@
       <c r="J11" s="3">
         <v>-600</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>-600</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1521,7 +1537,9 @@
       <c r="J12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1559,7 +1577,9 @@
       <c r="J13" s="3">
         <v>-2400</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>-2400</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1596,7 +1616,9 @@
         <f>-1444.36-109</f>
         <v>-1553.36</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>-1553.36</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1985,7 +2007,7 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22061.87</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
@@ -2046,11 +2068,11 @@
       </c>
       <c r="K33" s="3">
         <f t="shared" si="1"/>
-        <v>22059.28</v>
+        <v>-2.58999999999651</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22061.87</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -85,8 +85,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,11 +97,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,15 +157,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -136,16 +187,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,7 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,74 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,13 +250,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,6 +400,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,157 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +476,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -500,37 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,21 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1160,7 +1160,9 @@
       <c r="K2" s="3">
         <v>4334.35</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3">
+        <v>4334.35</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1200,7 +1202,9 @@
       <c r="K3" s="3">
         <v>865.13</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>865.13</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1240,7 +1244,9 @@
       <c r="K4" s="3">
         <v>17.44</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>17.44</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1280,7 +1286,9 @@
       <c r="K5" s="3">
         <v>2004.4</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>2004.4</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1320,7 +1328,9 @@
       <c r="K6" s="3">
         <v>484.82</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>484.82</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1398,7 +1408,9 @@
       <c r="K8" s="3">
         <v>10231.75</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>10231.75</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1438,7 +1450,9 @@
       <c r="K9" s="3">
         <v>10001.33</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>10001.33</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1500,7 +1514,9 @@
       <c r="K11" s="3">
         <v>-600</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>-600</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1540,7 +1556,9 @@
       <c r="K12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1580,7 +1598,9 @@
       <c r="K13" s="3">
         <v>-2400</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>-2400</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1619,7 +1639,9 @@
       <c r="K14" s="3">
         <v>-1553.36</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>-1553.36</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2011,7 +2033,7 @@
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22061.87</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>
@@ -2072,11 +2094,11 @@
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>
-        <v>22061.87</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22061.87</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -83,15 +83,68 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -105,30 +158,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,31 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,8 +210,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,47 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,11 +478,48 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,15 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,41 +563,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,130 +596,130 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1163,7 +1163,9 @@
       <c r="L2" s="3">
         <v>4334.35</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3">
+        <v>4334.95</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1205,7 +1207,9 @@
       <c r="L3" s="3">
         <v>865.13</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>865.21</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1247,7 +1251,9 @@
       <c r="L4" s="3">
         <v>17.44</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>17.44</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1289,7 +1295,9 @@
       <c r="L5" s="3">
         <v>2004.4</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>487.9</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1331,7 +1339,9 @@
       <c r="L6" s="3">
         <v>484.82</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>2004.4</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1369,7 +1379,9 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>10002</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1411,7 +1423,9 @@
       <c r="L8" s="3">
         <v>10231.75</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>10233.18</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1517,7 +1531,9 @@
       <c r="L11" s="3">
         <v>-600</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>-600</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1559,7 +1575,9 @@
       <c r="L12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1601,7 +1619,9 @@
       <c r="L13" s="3">
         <v>-2400</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>-2400</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1642,7 +1662,9 @@
       <c r="L14" s="3">
         <v>-1553.36</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>-1603.38</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2037,7 +2059,7 @@
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22017.71</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="0"/>
@@ -2098,11 +2120,11 @@
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>
-        <v>22061.87</v>
+        <v>44.1599999999999</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22017.71</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -84,9 +84,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,7 +105,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -113,23 +113,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,24 +133,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,7 +149,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -182,21 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,16 +180,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,8 +210,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,55 +250,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,42 +418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,79 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,26 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,17 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +541,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1166,7 +1166,9 @@
       <c r="M2" s="3">
         <v>4334.95</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3">
+        <v>4473.49</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
@@ -1210,7 +1212,9 @@
       <c r="M3" s="3">
         <v>865.21</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3">
+        <v>865.29</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
@@ -1254,7 +1258,9 @@
       <c r="M4" s="3">
         <v>17.44</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3">
+        <v>17.44</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
@@ -1298,7 +1304,9 @@
       <c r="M5" s="3">
         <v>487.9</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>475.89</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
@@ -1342,7 +1350,9 @@
       <c r="M6" s="3">
         <v>2004.4</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3">
+        <v>2004.4</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
@@ -1382,7 +1392,9 @@
       <c r="M7" s="3">
         <v>10002</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>10234.65</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
@@ -1426,7 +1438,9 @@
       <c r="M8" s="3">
         <v>10233.18</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3">
+        <v>10004.49</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
@@ -1534,7 +1548,9 @@
       <c r="M11" s="3">
         <v>-600</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N11" s="3">
+        <v>-600</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
@@ -1578,7 +1594,9 @@
       <c r="M12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
@@ -1622,7 +1640,9 @@
       <c r="M13" s="3">
         <v>-2400</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3">
+        <v>-2400</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
@@ -1665,7 +1685,9 @@
       <c r="M14" s="3">
         <v>-1603.38</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3">
+        <v>-1812.28</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
@@ -2063,7 +2085,7 @@
       </c>
       <c r="N32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21939.38</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
@@ -2124,11 +2146,11 @@
       </c>
       <c r="N33" s="3">
         <f t="shared" si="1"/>
-        <v>22017.71</v>
+        <v>78.3299999999981</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21939.38</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,6 +99,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,13 +135,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,23 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,7 +157,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,8 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,14 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -235,7 +227,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,45 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -526,6 +487,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,11 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +558,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,16 +593,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,16 +614,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,94 +632,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1169,7 +1169,9 @@
       <c r="N2" s="3">
         <v>4473.49</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3">
+        <v>4473.49</v>
+      </c>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
@@ -1215,7 +1217,9 @@
       <c r="N3" s="3">
         <v>865.29</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3">
+        <v>1800.48</v>
+      </c>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
@@ -1261,7 +1265,9 @@
       <c r="N4" s="3">
         <v>17.44</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>865.29</v>
+      </c>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16">
@@ -1307,7 +1313,9 @@
       <c r="N5" s="3">
         <v>475.89</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>17.44</v>
+      </c>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16">
@@ -1353,7 +1361,9 @@
       <c r="N6" s="3">
         <v>2004.4</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>2004.4</v>
+      </c>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16">
@@ -1395,7 +1405,9 @@
       <c r="N7" s="3">
         <v>10234.65</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>10233.56</v>
+      </c>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16">
@@ -1441,7 +1453,9 @@
       <c r="N8" s="3">
         <v>10004.49</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>10004.49</v>
+      </c>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
@@ -1551,7 +1565,9 @@
       <c r="N11" s="3">
         <v>-600</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>-600</v>
+      </c>
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16">
@@ -1597,7 +1613,9 @@
       <c r="N12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3">
+        <v>-1323.99</v>
+      </c>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16">
@@ -1643,7 +1661,9 @@
       <c r="N13" s="3">
         <v>-2400</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>-2400</v>
+      </c>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16">
@@ -1688,7 +1708,9 @@
       <c r="N14" s="3">
         <v>-1812.28</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3">
+        <v>-1812.28</v>
+      </c>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16">
@@ -2089,7 +2111,7 @@
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23262.88</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="0"/>
@@ -2150,11 +2172,11 @@
       </c>
       <c r="O33" s="3">
         <f t="shared" si="1"/>
-        <v>21939.38</v>
+        <v>-1323.49999999999</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23262.88</v>
       </c>
     </row>
     <row r="84" spans="2:2">

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -21,49 +21,49 @@
 序号</t>
   </si>
   <si>
-    <t>9.14</t>
-  </si>
-  <si>
-    <t>9.15</t>
-  </si>
-  <si>
-    <t>9.16</t>
-  </si>
-  <si>
-    <t>9.17</t>
-  </si>
-  <si>
-    <t>9.18</t>
-  </si>
-  <si>
-    <t>9.19</t>
-  </si>
-  <si>
-    <t>9.20</t>
-  </si>
-  <si>
-    <t>9.21</t>
-  </si>
-  <si>
-    <t>9.22</t>
-  </si>
-  <si>
-    <t>9.23</t>
-  </si>
-  <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>9.25</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>9.27</t>
-  </si>
-  <si>
-    <t>9.28</t>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>10.11</t>
+  </si>
+  <si>
+    <t>10.12</t>
+  </si>
+  <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>10.14</t>
+  </si>
+  <si>
+    <t>10.15</t>
   </si>
   <si>
     <t>合计</t>
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,6 +97,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -105,7 +113,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,127 +234,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,31 +250,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,151 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,35 +476,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,18 +521,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +549,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,145 +581,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="D2" sqref="D2:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1131,47 +1131,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>2774.65</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4207.58</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4207.58</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4369.9</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4369.9</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4369.9</v>
-      </c>
-      <c r="H2" s="3">
-        <v>4369.9</v>
-      </c>
-      <c r="I2" s="3">
-        <v>4373.79</v>
-      </c>
-      <c r="J2" s="3">
-        <v>4334.01</v>
-      </c>
-      <c r="K2" s="3">
-        <v>4334.35</v>
-      </c>
-      <c r="L2" s="3">
-        <v>4334.35</v>
-      </c>
-      <c r="M2" s="3">
-        <v>4334.95</v>
-      </c>
-      <c r="N2" s="3">
         <v>4473.49</v>
       </c>
-      <c r="O2" s="3">
-        <v>4473.49</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
@@ -1179,47 +1153,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>3500</v>
-      </c>
-      <c r="C3" s="3">
-        <v>488.81</v>
-      </c>
-      <c r="D3" s="3">
-        <v>488.81</v>
-      </c>
-      <c r="E3" s="3">
-        <v>487.2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>829.06</v>
-      </c>
-      <c r="G3" s="3">
-        <v>829.06</v>
-      </c>
-      <c r="H3" s="3">
-        <v>829.06</v>
-      </c>
-      <c r="I3" s="3">
-        <v>865.05</v>
-      </c>
-      <c r="J3" s="3">
-        <v>865.05</v>
-      </c>
-      <c r="K3" s="3">
-        <v>865.13</v>
-      </c>
-      <c r="L3" s="3">
-        <v>865.13</v>
-      </c>
-      <c r="M3" s="3">
-        <v>865.21</v>
-      </c>
-      <c r="N3" s="3">
-        <v>865.29</v>
-      </c>
-      <c r="O3" s="3">
         <v>1800.48</v>
       </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
@@ -1227,47 +1175,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="C4" s="3">
-        <v>200</v>
-      </c>
-      <c r="D4" s="3">
-        <v>200</v>
-      </c>
-      <c r="E4" s="3">
-        <v>200</v>
-      </c>
-      <c r="F4" s="3">
-        <v>200</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2000.31</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2000.31</v>
-      </c>
-      <c r="K4" s="3">
-        <v>17.44</v>
-      </c>
-      <c r="L4" s="3">
-        <v>17.44</v>
-      </c>
-      <c r="M4" s="3">
-        <v>17.44</v>
-      </c>
-      <c r="N4" s="3">
-        <v>17.44</v>
-      </c>
-      <c r="O4" s="3">
         <v>865.29</v>
       </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16">
@@ -1275,47 +1197,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>1928.07</v>
-      </c>
-      <c r="C5" s="3">
-        <v>828.94</v>
-      </c>
-      <c r="D5" s="3">
-        <v>828.94</v>
-      </c>
-      <c r="E5" s="3">
-        <v>829.02</v>
-      </c>
-      <c r="F5" s="3">
-        <v>481.91</v>
-      </c>
-      <c r="G5" s="3">
-        <v>481.91</v>
-      </c>
-      <c r="H5" s="3">
-        <v>481.91</v>
-      </c>
-      <c r="I5" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="J5" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="K5" s="3">
-        <v>2004.4</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2004.4</v>
-      </c>
-      <c r="M5" s="3">
-        <v>487.9</v>
-      </c>
-      <c r="N5" s="3">
-        <v>475.89</v>
-      </c>
-      <c r="O5" s="3">
         <v>17.44</v>
       </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16">
@@ -1323,47 +1219,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>10214.95</v>
-      </c>
-      <c r="C6" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="D6" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="E6" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="F6" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="G6" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="H6" s="3">
-        <v>17.42</v>
-      </c>
-      <c r="I6" s="3">
-        <v>484.8</v>
-      </c>
-      <c r="J6" s="3">
-        <v>484.8</v>
-      </c>
-      <c r="K6" s="3">
-        <v>484.82</v>
-      </c>
-      <c r="L6" s="3">
-        <v>484.82</v>
-      </c>
-      <c r="M6" s="3">
         <v>2004.4</v>
       </c>
-      <c r="N6" s="3">
-        <v>2004.4</v>
-      </c>
-      <c r="O6" s="3">
-        <v>2004.4</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16">
@@ -1371,43 +1241,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>10016.25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.06</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4.06</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.06</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4.02</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4.02</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4.02</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4.02</v>
-      </c>
-      <c r="J7" s="3">
-        <v>4.02</v>
-      </c>
+        <v>10233.56</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3">
-        <v>10002</v>
-      </c>
-      <c r="N7" s="3">
-        <v>10234.65</v>
-      </c>
-      <c r="O7" s="3">
-        <v>10233.56</v>
-      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16">
@@ -1415,86 +1263,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10225.89</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10225.89</v>
-      </c>
-      <c r="E8" s="3">
-        <v>10227.33</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10228.1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10228.1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10228.1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10230.33</v>
-      </c>
-      <c r="J8" s="3">
-        <v>10230.33</v>
-      </c>
-      <c r="K8" s="3">
-        <v>10231.75</v>
-      </c>
-      <c r="L8" s="3">
-        <v>10231.75</v>
-      </c>
-      <c r="M8" s="3">
-        <v>10233.18</v>
-      </c>
-      <c r="N8" s="3">
         <v>10004.49</v>
       </c>
-      <c r="O8" s="3">
-        <v>10004.49</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>-1845.25</v>
-      </c>
-      <c r="C9" s="3">
-        <v>12038.95</v>
-      </c>
-      <c r="D9" s="3">
-        <v>12038.95</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12042.14</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12043.74</v>
-      </c>
-      <c r="G9" s="3">
-        <v>12043.74</v>
-      </c>
-      <c r="H9" s="3">
-        <v>12043.74</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10000.69</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10000.69</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10001.33</v>
-      </c>
-      <c r="L9" s="3">
-        <v>10001.33</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1504,9 +1304,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>-600</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1527,47 +1325,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>-165</v>
-      </c>
-      <c r="C11" s="3">
         <v>-600</v>
       </c>
-      <c r="D11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O11" s="3">
-        <v>-600</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16">
@@ -1575,47 +1347,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>-564.26</v>
-      </c>
-      <c r="C12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="D12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="F12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="G12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="H12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="I12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="J12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="K12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="L12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="M12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="N12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="O12" s="3">
-        <v>-1323.99</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16">
@@ -1623,94 +1369,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1348.75</v>
-      </c>
-      <c r="C13" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-2490</v>
-      </c>
-      <c r="F13" s="3">
         <v>-2400</v>
       </c>
-      <c r="G13" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="H13" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I13" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J13" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K13" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="L13" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="M13" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="N13" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="O13" s="3">
-        <v>-2400</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
-        <v>-1180.22</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-1180.22</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-1442.22</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-1442.22</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-1442.22</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-1442.22</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-1444.36</v>
-      </c>
-      <c r="J14" s="3">
-        <f>-1444.36-109</f>
-        <v>-1553.36</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-1553.36</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-1553.36</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-1603.38</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="B14" s="3">
         <v>-1812.28</v>
       </c>
-      <c r="O14" s="3">
-        <v>-1812.28</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16">
@@ -2059,59 +1754,59 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B2:B31)</f>
-        <v>24135.58</v>
+        <v>23262.88</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>
-        <v>22417.44</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>22417.44</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
-        <v>22320.86</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>22407.94</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>22207.94</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>22207.94</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
-        <v>22208.06</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>22059.28</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>22061.87</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
-        <v>22061.87</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="0"/>
-        <v>22017.71</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="0"/>
-        <v>21939.38</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
-        <v>23262.88</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="0"/>
@@ -2124,7 +1819,7 @@
       </c>
       <c r="C33" s="3">
         <f>B32-C32</f>
-        <v>1718.14</v>
+        <v>23262.88</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ref="D33:P33" si="1">C32-D32</f>
@@ -2132,15 +1827,15 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>96.5800000000017</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>-87.0800000000017</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
@@ -2148,15 +1843,15 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="1"/>
-        <v>-0.120000000002619</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
-        <v>148.779999999999</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="1"/>
-        <v>-2.58999999999651</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>
@@ -2164,19 +1859,19 @@
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>
-        <v>44.1599999999999</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="1"/>
-        <v>78.3299999999981</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="1"/>
-        <v>-1323.49999999999</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" si="1"/>
-        <v>23262.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:2">

--- a/a.xlsx
+++ b/a.xlsx
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,7 +97,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -112,29 +111,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,24 +133,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -181,6 +166,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -188,7 +181,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,9 +203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,22 +228,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,181 +250,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,11 +478,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,50 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,8 +557,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:O15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1133,12 +1133,24 @@
       <c r="B2" s="3">
         <v>4473.49</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="3">
+        <v>4474.49</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4475.49</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4476.49</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4477.49</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4478.49</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5260.19</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1155,12 +1167,24 @@
       <c r="B3" s="3">
         <v>1800.48</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="3">
+        <v>1801.48</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1802.48</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1803.48</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1804.48</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1805.48</v>
+      </c>
+      <c r="H3" s="3">
+        <v>578.65</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1177,12 +1201,24 @@
       <c r="B4" s="3">
         <v>865.29</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="3">
+        <v>866.29</v>
+      </c>
+      <c r="D4" s="3">
+        <v>867.29</v>
+      </c>
+      <c r="E4" s="3">
+        <v>868.29</v>
+      </c>
+      <c r="F4" s="3">
+        <v>869.29</v>
+      </c>
+      <c r="G4" s="3">
+        <v>870.29</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5300.84</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1199,12 +1235,24 @@
       <c r="B5" s="3">
         <v>17.44</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="D5" s="3">
+        <v>19.44</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20.44</v>
+      </c>
+      <c r="F5" s="3">
+        <v>21.44</v>
+      </c>
+      <c r="G5" s="3">
+        <v>22.44</v>
+      </c>
+      <c r="H5" s="3">
+        <v>865.69</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1221,12 +1269,24 @@
       <c r="B6" s="3">
         <v>2004.4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="3">
+        <v>2005.4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2006.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2007.4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2008.4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2009.4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>17.44</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1243,12 +1303,24 @@
       <c r="B7" s="3">
         <v>10233.56</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="3">
+        <v>10234.56</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10235.56</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10236.56</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10237.56</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10238.56</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10241.88</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1265,12 +1337,24 @@
       <c r="B8" s="3">
         <v>10004.49</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="3">
+        <v>10005.49</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10006.49</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10007.49</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10008.49</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10009.49</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10010.1</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1327,12 +1411,24 @@
       <c r="B11" s="3">
         <v>-600</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="C11" s="3">
+        <v>-599</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-598</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-597</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-596</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-595</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-1910.39</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1349,12 +1445,24 @@
       <c r="B12" s="3">
         <v>-1323.99</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="C12" s="3">
+        <v>-1322.99</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1321.99</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-1320.99</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-1319.99</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-1318.99</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-2400</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1371,12 +1479,24 @@
       <c r="B13" s="3">
         <v>-2400</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="C13" s="3">
+        <v>-2399</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-2398</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-2397</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-2396</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-2395</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-912.62</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1393,12 +1513,24 @@
       <c r="B14" s="3">
         <v>-1812.28</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="C14" s="3">
+        <v>-1811.28</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-1810.28</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1809.28</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-1808.28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-1807.28</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-600</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1758,27 +1890,27 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>
-        <v>0</v>
+        <v>23273.88</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23284.88</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23295.88</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23306.88</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23317.88</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26451.78</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
@@ -1819,31 +1951,31 @@
       </c>
       <c r="C33" s="3">
         <f>B32-C32</f>
-        <v>23262.88</v>
+        <v>-11</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ref="D33:P33" si="1">C32-D32</f>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3133.90000000001</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26451.78</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -84,9 +84,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,14 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +120,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,7 +180,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,14 +198,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,13 +218,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -196,50 +234,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,36 +486,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -533,8 +503,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,15 +565,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1151,9 +1151,15 @@
       <c r="H2" s="3">
         <v>5260.19</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="I2" s="3">
+        <v>5260.19</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5260.19</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5260.19</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1185,9 +1191,15 @@
       <c r="H3" s="3">
         <v>578.65</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="I3" s="3">
+        <v>578.65</v>
+      </c>
+      <c r="J3" s="3">
+        <v>578.65</v>
+      </c>
+      <c r="K3" s="3">
+        <v>578.65</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1219,9 +1231,15 @@
       <c r="H4" s="3">
         <v>5300.84</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="3">
+        <v>5300.84</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5300.84</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5300.84</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1253,9 +1271,15 @@
       <c r="H5" s="3">
         <v>865.69</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="I5" s="3">
+        <v>865.69</v>
+      </c>
+      <c r="J5" s="3">
+        <v>865.69</v>
+      </c>
+      <c r="K5" s="3">
+        <v>865.69</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1287,9 +1311,15 @@
       <c r="H6" s="3">
         <v>17.44</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="I6" s="3">
+        <v>17.44</v>
+      </c>
+      <c r="J6" s="3">
+        <v>17.44</v>
+      </c>
+      <c r="K6" s="3">
+        <v>17.44</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1321,9 +1351,15 @@
       <c r="H7" s="3">
         <v>10241.88</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="I7" s="3">
+        <v>10241.88</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10241.88</v>
+      </c>
+      <c r="K7" s="3">
+        <v>10241.88</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1355,9 +1391,15 @@
       <c r="H8" s="3">
         <v>10010.1</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="I8" s="3">
+        <v>10010.1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10010.1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>10010.1</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1429,9 +1471,15 @@
       <c r="H11" s="3">
         <v>-1910.39</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="I11" s="3">
+        <v>-1910.39</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-1910.39</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-1910.39</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1463,9 +1511,15 @@
       <c r="H12" s="3">
         <v>-2400</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="I12" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>-2400</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1497,9 +1551,15 @@
       <c r="H13" s="3">
         <v>-912.62</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="I13" s="3">
+        <v>-912.62</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-912.62</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-912.62</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1531,9 +1591,15 @@
       <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="I14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-600</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1914,15 +1980,15 @@
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26451.78</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26451.78</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26451.78</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
@@ -1951,7 +2017,7 @@
       </c>
       <c r="C33" s="3">
         <f>B32-C32</f>
-        <v>-11</v>
+        <v>-10.9999999999927</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ref="D33:P33" si="1">C32-D32</f>
@@ -1975,7 +2041,7 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="1"/>
-        <v>26451.78</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
@@ -1987,7 +2053,7 @@
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26451.78</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t xml:space="preserve">    日期
 序号</t>
@@ -77,16 +77,19 @@
   <si>
     <t>科目一</t>
   </si>
+  <si>
+    <t>班费</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,7 +101,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,14 +130,92 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,99 +238,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,13 +253,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,169 +379,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,17 +488,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,21 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -563,13 +547,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -789,11 +792,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1053,12 +1051,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1163,7 +1161,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3">
+        <v>6759.53</v>
+      </c>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
@@ -1203,7 +1203,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3">
+        <v>9.44</v>
+      </c>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
@@ -1243,7 +1245,9 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>829.97</v>
+      </c>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16">
@@ -1283,7 +1287,9 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>4220.84</v>
+      </c>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16">
@@ -1323,7 +1329,9 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>10247.01</v>
+      </c>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16">
@@ -1363,7 +1371,9 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>10014.03</v>
+      </c>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16">
@@ -1403,7 +1413,9 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>10.47</v>
+      </c>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
@@ -1443,7 +1455,9 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3">
+        <v>295.89</v>
+      </c>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16">
@@ -1483,7 +1497,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>-852.55</v>
+      </c>
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16">
@@ -1523,7 +1539,9 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3">
+        <v>-1011.22</v>
+      </c>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16">
@@ -1563,7 +1581,9 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>-3000</v>
+      </c>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16">
@@ -2004,7 +2024,7 @@
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27523.41</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="0"/>
@@ -2065,11 +2085,11 @@
       </c>
       <c r="O33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-27523.41</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27523.41</v>
       </c>
     </row>
     <row r="84" spans="2:2">
@@ -2083,6 +2103,14 @@
       </c>
       <c r="C85">
         <v>570</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -21,43 +21,43 @@
 序号</t>
   </si>
   <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>10.8</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>10.10</t>
-  </si>
-  <si>
-    <t>10.11</t>
-  </si>
-  <si>
-    <t>10.12</t>
-  </si>
-  <si>
-    <t>10.13</t>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>10.17</t>
+  </si>
+  <si>
+    <t>10.18</t>
+  </si>
+  <si>
+    <t>10.19</t>
+  </si>
+  <si>
+    <t>10.20</t>
+  </si>
+  <si>
+    <t>10.21</t>
+  </si>
+  <si>
+    <t>10.22</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>10.24</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>10.26</t>
+  </si>
+  <si>
+    <t>10.27</t>
+  </si>
+  <si>
+    <t>10.28</t>
   </si>
   <si>
     <t>10.14</t>
@@ -88,8 +88,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,9 +101,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,18 +130,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,25 +160,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,16 +183,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,30 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,6 +235,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,26 +483,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -519,6 +499,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +551,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,137 +596,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +738,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -792,6 +795,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1051,12 +1059,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1129,35 +1137,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>4473.49</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4474.49</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4475.49</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4476.49</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4477.49</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4478.49</v>
-      </c>
-      <c r="H2" s="3">
-        <v>5260.19</v>
-      </c>
-      <c r="I2" s="3">
-        <v>5260.19</v>
-      </c>
-      <c r="J2" s="3">
-        <v>5260.19</v>
-      </c>
-      <c r="K2" s="3">
-        <v>5260.19</v>
-      </c>
+        <v>10248.58</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1171,35 +1161,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1800.48</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1801.48</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1802.48</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1803.48</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1804.48</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1805.48</v>
-      </c>
-      <c r="H3" s="3">
-        <v>578.65</v>
-      </c>
-      <c r="I3" s="3">
-        <v>578.65</v>
-      </c>
-      <c r="J3" s="3">
-        <v>578.65</v>
-      </c>
-      <c r="K3" s="3">
-        <v>578.65</v>
-      </c>
+        <v>10015.15</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1213,35 +1185,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>865.29</v>
-      </c>
-      <c r="C4" s="3">
-        <v>866.29</v>
-      </c>
-      <c r="D4" s="3">
-        <v>867.29</v>
-      </c>
-      <c r="E4" s="3">
-        <v>868.29</v>
-      </c>
-      <c r="F4" s="3">
-        <v>869.29</v>
-      </c>
-      <c r="G4" s="3">
-        <v>870.29</v>
-      </c>
-      <c r="H4" s="3">
-        <v>5300.84</v>
-      </c>
-      <c r="I4" s="3">
-        <v>5300.84</v>
-      </c>
-      <c r="J4" s="3">
-        <v>5300.84</v>
-      </c>
-      <c r="K4" s="3">
-        <v>5300.84</v>
-      </c>
+        <v>6760.35</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1255,35 +1209,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>17.44</v>
-      </c>
-      <c r="C5" s="3">
-        <v>18.44</v>
-      </c>
-      <c r="D5" s="3">
-        <v>19.44</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20.44</v>
-      </c>
-      <c r="F5" s="3">
-        <v>21.44</v>
-      </c>
-      <c r="G5" s="3">
-        <v>22.44</v>
-      </c>
-      <c r="H5" s="3">
-        <v>865.69</v>
-      </c>
-      <c r="I5" s="3">
-        <v>865.69</v>
-      </c>
-      <c r="J5" s="3">
-        <v>865.69</v>
-      </c>
-      <c r="K5" s="3">
-        <v>865.69</v>
-      </c>
+        <v>4220.84</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1297,35 +1233,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>2004.4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2005.4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2006.4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2007.4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2008.4</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2009.4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>17.44</v>
-      </c>
-      <c r="I6" s="3">
-        <v>17.44</v>
-      </c>
-      <c r="J6" s="3">
-        <v>17.44</v>
-      </c>
-      <c r="K6" s="3">
-        <v>17.44</v>
-      </c>
+        <v>830.05</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1339,35 +1257,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>10233.56</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10234.56</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10235.56</v>
-      </c>
-      <c r="E7" s="3">
-        <v>10236.56</v>
-      </c>
-      <c r="F7" s="3">
-        <v>10237.56</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10238.56</v>
-      </c>
-      <c r="H7" s="3">
-        <v>10241.88</v>
-      </c>
-      <c r="I7" s="3">
-        <v>10241.88</v>
-      </c>
-      <c r="J7" s="3">
-        <v>10241.88</v>
-      </c>
-      <c r="K7" s="3">
-        <v>10241.88</v>
-      </c>
+        <v>292.42</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1381,35 +1281,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>10004.49</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10005.49</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10006.49</v>
-      </c>
-      <c r="E8" s="3">
-        <v>10007.49</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10008.49</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10009.49</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10010.1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10010.1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>10010.1</v>
-      </c>
-      <c r="K8" s="3">
-        <v>10010.1</v>
-      </c>
+        <v>-859.39</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1422,7 +1304,9 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>-1011.22</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1442,7 +1326,9 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>-3000</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1465,35 +1351,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>-600</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-599</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-598</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-597</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-596</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-595</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-1910.39</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-1910.39</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-1910.39</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-1910.39</v>
-      </c>
+        <v>52.6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1506,36 +1374,16 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>-1323.99</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-1322.99</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-1321.99</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-1320.99</v>
-      </c>
-      <c r="F12" s="3">
-        <v>-1319.99</v>
-      </c>
-      <c r="G12" s="3">
-        <v>-1318.99</v>
-      </c>
-      <c r="H12" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>-2400</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1548,36 +1396,16 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="C13" s="3">
-        <v>-2399</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-2398</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-2397</v>
-      </c>
-      <c r="F13" s="3">
-        <v>-2396</v>
-      </c>
-      <c r="G13" s="3">
-        <v>-2395</v>
-      </c>
-      <c r="H13" s="3">
-        <v>-912.62</v>
-      </c>
-      <c r="I13" s="3">
-        <v>-912.62</v>
-      </c>
-      <c r="J13" s="3">
-        <v>-912.62</v>
-      </c>
-      <c r="K13" s="3">
-        <v>-912.62</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1590,36 +1418,16 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>-1812.28</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-1811.28</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-1810.28</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-1809.28</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-1808.28</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-1807.28</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-600</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1972,43 +1780,43 @@
       </c>
       <c r="B32" s="3">
         <f>SUM(B2:B31)</f>
-        <v>23262.88</v>
+        <v>27549.38</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:P32" si="0">SUM(C2:C31)</f>
-        <v>23273.88</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>23284.88</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
-        <v>23295.88</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>23306.88</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>23317.88</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>26451.78</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
-        <v>26451.78</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>26451.78</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>26451.78</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="0"/>
@@ -2031,33 +1839,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="1:16">
+      <c r="A33" s="4"/>
       <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="3">
         <f>B32-C32</f>
-        <v>-10.9999999999927</v>
+        <v>27549.38</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ref="D33:P33" si="1">C32-D32</f>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>-3133.90000000001</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="1"/>
@@ -2073,7 +1882,7 @@
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>
-        <v>26451.78</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t xml:space="preserve">    日期
 序号</t>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>班费</t>
+  </si>
+  <si>
+    <t>学费</t>
   </si>
 </sst>
 </file>
@@ -86,9 +89,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -101,7 +104,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,23 +163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,7 +179,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,31 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,15 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -238,7 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,61 +256,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,121 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,15 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -512,6 +506,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -523,6 +541,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,32 +579,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1922,6 +1925,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -89,15 +89,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,11 +133,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,8 +154,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,23 +194,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,17 +233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,37 +246,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -256,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +483,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -497,11 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +541,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,32 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -564,21 +579,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alig